--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2DD5508-4459-0342-924E-7689ADCFEADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEB47A-448F-4046-B8AB-063A35D9971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="39880" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,8 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,8 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,33 +538,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -581,7 +581,7 @@
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -598,42 +598,50 @@
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>65.015000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>96.501000000000005</v>
+      </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="1">
@@ -650,7 +658,7 @@
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1">
@@ -667,7 +675,7 @@
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1">
@@ -684,51 +692,67 @@
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>58.223999999999997</v>
+      </c>
+      <c r="G18" s="1">
+        <v>93.820999999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>90.260999999999996</v>
+      </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50.307000000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>95.031000000000006</v>
+      </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1"/>
@@ -737,55 +761,55 @@
       <c r="H20" s="1"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="2" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1">
@@ -800,7 +824,7 @@
       <c r="H25" s="1">
         <v>99.128</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -817,7 +841,7 @@
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="1">
@@ -832,7 +856,7 @@
       <c r="H26" s="1">
         <v>99.966999999999999</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K26" s="1">
@@ -849,7 +873,7 @@
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1">
@@ -864,7 +888,7 @@
       <c r="H27" s="1">
         <v>99.981999999999999</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="1">
@@ -881,33 +905,33 @@
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1">
@@ -924,7 +948,7 @@
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="1">
@@ -941,7 +965,7 @@
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1">
@@ -958,33 +982,33 @@
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="1">
@@ -1001,7 +1025,7 @@
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="1">
@@ -1018,7 +1042,7 @@
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="1">
@@ -1035,33 +1059,33 @@
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="1">
@@ -1078,7 +1102,7 @@
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="1">
@@ -1095,7 +1119,7 @@
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1">

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBEB47A-448F-4046-B8AB-063A35D9971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA5DB9E-92C9-E242-8329-F52D2EEDBFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="57600" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>LDA</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>CNN  (Complex Model, 11 Epochs, 100 Batch Size, &lt;size&gt; Filter)</t>
+  </si>
+  <si>
+    <t>Best K - Test</t>
+  </si>
+  <si>
+    <t>Best K - Train</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>64x64</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -189,11 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +213,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,633 +547,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
-  <dimension ref="D2:N48"/>
+  <dimension ref="D2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="5"/>
+    <col min="16" max="16" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="5"/>
+    <col min="19" max="19" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="R2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="3" t="s">
+      <c r="R3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>96.968999999999994</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>98.373000000000005</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>98.198999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
+      <c r="R4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>6</v>
+      </c>
+      <c r="T4" s="6">
+        <v>97.009</v>
+      </c>
+      <c r="U4" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="V4" s="6">
+        <v>99.15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
         <v>97.346999999999994</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>99.933000000000007</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>99.674000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="R5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="6">
+        <v>10</v>
+      </c>
+      <c r="T5" s="6">
+        <v>97.346999999999994</v>
+      </c>
+      <c r="U5" s="6">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6">
         <v>65.015000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>100</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>96.501000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
+      <c r="R6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6">
+        <v>70.73</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="R9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
+      <c r="R10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>95.238</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>95.459000000000003</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>95.421999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
+      <c r="R11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>9</v>
+      </c>
+      <c r="T11" s="6">
+        <v>95.257999999999996</v>
+      </c>
+      <c r="U11" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="V11" s="6">
+        <v>95.677999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
         <v>96.466999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>96.881</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>96.742999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="R12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3</v>
+      </c>
+      <c r="T12" s="6">
+        <v>96.466999999999999</v>
+      </c>
+      <c r="U12" s="6">
+        <v>2</v>
+      </c>
+      <c r="V12" s="6">
+        <v>97.111000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
         <v>9</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>96.885999999999996</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>97.299000000000007</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>97.253</v>
       </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
+      <c r="R13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6">
+        <v>96.887</v>
+      </c>
+      <c r="U13" s="6">
+        <v>2</v>
+      </c>
+      <c r="V13" s="6">
+        <v>97.634</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="R16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
+      <c r="R17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
         <v>58.223999999999997</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>93.820999999999998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="6">
         <v>90.260999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
+      <c r="R18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>10</v>
+      </c>
+      <c r="T18" s="6">
+        <v>58.223999999999997</v>
+      </c>
+      <c r="U18" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="V18" s="6">
+        <v>96.814999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6">
         <v>50.307000000000002</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6">
         <v>100</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <v>95.031000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D23" s="4" t="s">
+      <c r="R19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="6">
+        <v>4</v>
+      </c>
+      <c r="T19" s="6">
+        <v>54.914999999999999</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="R20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="J23" s="4" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="R23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6">
+        <v>98.71</v>
+      </c>
+      <c r="G25" s="6">
+        <v>99.188000000000002</v>
+      </c>
+      <c r="H25" s="6">
+        <v>99.128</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10</v>
+      </c>
+      <c r="L25" s="6">
+        <v>99.15</v>
+      </c>
+      <c r="M25" s="6">
+        <v>99.465999999999994</v>
+      </c>
+      <c r="N25" s="6">
+        <v>99.435000000000002</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <v>8</v>
+      </c>
+      <c r="T25" s="6">
+        <v>98.71</v>
+      </c>
+      <c r="U25" s="6">
+        <v>8</v>
+      </c>
+      <c r="V25" s="6">
+        <v>99.188000000000002</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>99.15</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>99.465999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="G26" s="6">
+        <v>99.997</v>
+      </c>
+      <c r="H26" s="6">
+        <v>99.966999999999999</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="6">
+        <v>10</v>
+      </c>
+      <c r="L26" s="6">
+        <v>99.825999999999993</v>
+      </c>
+      <c r="M26" s="6">
+        <v>100</v>
+      </c>
+      <c r="N26" s="6">
+        <v>99.983000000000004</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="6">
+        <v>8</v>
+      </c>
+      <c r="T26" s="6">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="U26" s="5">
+        <v>8</v>
+      </c>
+      <c r="V26" s="6">
+        <v>99.997</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>99.825999999999993</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6">
+        <v>99.816000000000003</v>
+      </c>
+      <c r="G27" s="6">
+        <v>100</v>
+      </c>
+      <c r="H27" s="6">
+        <v>99.981999999999999</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="6">
+        <v>8</v>
+      </c>
+      <c r="L27" s="6">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="M27" s="6">
+        <v>100</v>
+      </c>
+      <c r="N27" s="6">
+        <v>99.974999999999994</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="6">
+        <v>10</v>
+      </c>
+      <c r="T27" s="6">
+        <v>99.816000000000003</v>
+      </c>
+      <c r="U27" s="6">
+        <v>10</v>
+      </c>
+      <c r="V27" s="6">
+        <v>100</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+      <c r="R30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>99.385999999999996</v>
+      </c>
+      <c r="G32" s="6">
+        <v>99.701999999999998</v>
+      </c>
+      <c r="H32" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>9</v>
+      </c>
+      <c r="L32" s="6">
+        <v>99.528999999999996</v>
+      </c>
+      <c r="M32" s="6">
+        <v>99.763999999999996</v>
+      </c>
+      <c r="N32" s="6">
+        <v>99.738</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="6">
+        <v>10</v>
+      </c>
+      <c r="T32" s="6">
+        <v>99.385999999999996</v>
+      </c>
+      <c r="U32" s="5">
+        <v>10</v>
+      </c>
+      <c r="V32" s="6">
+        <v>99.701999999999998</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>99.528999999999996</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>9</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>99.763999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>99.703000000000003</v>
+      </c>
+      <c r="G33" s="6">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>99.97</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="6">
+        <v>10</v>
+      </c>
+      <c r="L33" s="6">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="M33" s="6">
+        <v>99.997</v>
+      </c>
+      <c r="N33" s="6">
+        <v>99.971999999999994</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="6">
+        <v>9</v>
+      </c>
+      <c r="T33" s="6">
+        <v>99.724000000000004</v>
+      </c>
+      <c r="U33" s="6">
+        <v>9</v>
+      </c>
+      <c r="V33" s="6">
+        <v>100</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="G34" s="6">
+        <v>100</v>
+      </c>
+      <c r="H34" s="6">
+        <v>99.977000000000004</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>9</v>
+      </c>
+      <c r="L34" s="6">
+        <v>99.733999999999995</v>
+      </c>
+      <c r="M34" s="6">
+        <v>100</v>
+      </c>
+      <c r="N34" s="6">
+        <v>99.972999999999999</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="6">
+        <v>10</v>
+      </c>
+      <c r="T34" s="6">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="U34" s="6">
+        <v>10</v>
+      </c>
+      <c r="V34" s="6">
+        <v>100</v>
+      </c>
+      <c r="X34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>99.733999999999995</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="AA35" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="R37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="R38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="S38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="U38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="39" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1">
-        <v>98.71</v>
-      </c>
-      <c r="G25" s="1">
-        <v>99.188000000000002</v>
-      </c>
-      <c r="H25" s="1">
-        <v>99.128</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="E39" s="6">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6">
+        <v>98.525000000000006</v>
+      </c>
+      <c r="G39" s="6">
+        <v>98.804000000000002</v>
+      </c>
+      <c r="H39" s="6">
+        <v>98.775999999999996</v>
+      </c>
+      <c r="R39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
-        <v>10</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="S39" s="6">
+        <v>10</v>
+      </c>
+      <c r="T39" s="6">
         <v>98.525000000000006</v>
       </c>
-      <c r="M25" s="1">
+      <c r="U39" s="6">
+        <v>10</v>
+      </c>
+      <c r="V39" s="6">
         <v>98.804000000000002</v>
       </c>
-      <c r="N25" s="1">
-        <v>98.775999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="G26" s="1">
-        <v>99.997</v>
-      </c>
-      <c r="H26" s="1">
-        <v>99.966999999999999</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1">
-        <v>10</v>
-      </c>
-      <c r="L26" s="1">
+    </row>
+    <row r="40" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6">
         <v>98.832999999999998</v>
       </c>
-      <c r="M26" s="1">
+      <c r="G40" s="6">
         <v>99.106999999999999</v>
       </c>
-      <c r="N26" s="1">
+      <c r="H40" s="6">
         <v>99.078999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="R40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S40" s="6">
+        <v>10</v>
+      </c>
+      <c r="T40" s="6">
+        <v>98.832999999999998</v>
+      </c>
+      <c r="U40" s="6">
+        <v>10</v>
+      </c>
+      <c r="V40" s="6">
+        <v>99.106999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6">
+        <v>99.099000000000004</v>
+      </c>
+      <c r="G41" s="6">
+        <v>99.447000000000003</v>
+      </c>
+      <c r="H41" s="6">
+        <v>99.397000000000006</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="6">
         <v>9</v>
       </c>
-      <c r="F27" s="1">
-        <v>99.816000000000003</v>
-      </c>
-      <c r="G27" s="1">
-        <v>100</v>
-      </c>
-      <c r="H27" s="1">
-        <v>99.981999999999999</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="T41" s="6">
+        <v>99.108999999999995</v>
+      </c>
+      <c r="U41" s="6">
         <v>7</v>
       </c>
-      <c r="L27" s="1">
-        <v>99.099000000000004</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="V41" s="6">
         <v>99.447000000000003</v>
       </c>
-      <c r="N27" s="1">
-        <v>99.397000000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1">
-        <v>99.385999999999996</v>
-      </c>
-      <c r="G32" s="1">
-        <v>99.701999999999998</v>
-      </c>
-      <c r="H32" s="1">
-        <v>99.67</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>99.703000000000003</v>
-      </c>
-      <c r="G33" s="1">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1">
-        <v>99.97</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1">
-        <v>99.775000000000006</v>
-      </c>
-      <c r="G34" s="1">
-        <v>100</v>
-      </c>
-      <c r="H34" s="1">
-        <v>99.977000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1">
-        <v>99.15</v>
-      </c>
-      <c r="G39" s="1">
-        <v>99.465999999999994</v>
-      </c>
-      <c r="H39" s="1">
-        <v>99.435000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
-        <v>99.825999999999993</v>
-      </c>
-      <c r="G40" s="1">
-        <v>100</v>
-      </c>
-      <c r="H40" s="1">
-        <v>99.983000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
-      <c r="F41" s="1">
-        <v>99.775000000000006</v>
-      </c>
-      <c r="G41" s="1">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1">
-        <v>99.974999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1">
-        <v>99.528999999999996</v>
-      </c>
-      <c r="G46" s="1">
-        <v>99.763999999999996</v>
-      </c>
-      <c r="H46" s="1">
-        <v>99.738</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="G47" s="1">
-        <v>99.997</v>
-      </c>
-      <c r="H47" s="1">
-        <v>99.971999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1">
-        <v>99.733999999999995</v>
-      </c>
-      <c r="G48" s="1">
-        <v>100</v>
-      </c>
-      <c r="H48" s="1">
-        <v>99.972999999999999</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="J23:N23"/>
+  <mergeCells count="16">
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="J30:N30"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D30:H30"/>
+    <mergeCell ref="J23:N23"/>
     <mergeCell ref="D37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA5DB9E-92C9-E242-8329-F52D2EEDBFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE64F7-4473-7B42-9A4D-3C1CB5D26090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>LDA</t>
   </si>
@@ -204,20 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,7 +218,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,1166 +546,1178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="10" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="5"/>
-    <col min="16" max="16" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="5"/>
-    <col min="19" max="19" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="R2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="R2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>96.968999999999994</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>98.373000000000005</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>98.198999999999998</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="2">
         <v>6</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="2">
         <v>97.009</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="2">
         <v>2</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="2">
         <v>99.15</v>
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
         <v>97.346999999999994</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>99.933000000000007</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>99.674000000000007</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="6">
-        <v>10</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="S5" s="2">
+        <v>10</v>
+      </c>
+      <c r="T5" s="2">
         <v>97.346999999999994</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="2">
         <v>2</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
         <v>65.015000000000001</v>
       </c>
-      <c r="G6" s="6">
-        <v>100</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
         <v>96.501000000000005</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="6">
-        <v>3</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="R6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
         <v>70.73</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="R9" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="R9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>95.238</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="2">
         <v>95.459000000000003</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="2">
         <v>95.421999999999997</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="2">
         <v>9</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="2">
         <v>95.257999999999996</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="2">
         <v>2</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="2">
         <v>95.677999999999997</v>
       </c>
     </row>
     <row r="12" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
         <v>96.466999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="2">
         <v>96.881</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="2">
         <v>96.742999999999995</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="6">
-        <v>3</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2">
         <v>96.466999999999999</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="2">
         <v>2</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="2">
         <v>97.111000000000004</v>
       </c>
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>96.885999999999996</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>97.299000000000007</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <v>97.253</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="6">
-        <v>3</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="R13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
         <v>96.887</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="2">
         <v>2</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="2">
         <v>97.634</v>
       </c>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="R16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="R16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
         <v>58.223999999999997</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="2">
         <v>93.820999999999998</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="2">
         <v>90.260999999999996</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S18" s="6">
-        <v>10</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="S18" s="2">
+        <v>10</v>
+      </c>
+      <c r="T18" s="2">
         <v>58.223999999999997</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="2">
         <v>2</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="2">
         <v>96.814999999999998</v>
       </c>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
         <v>50.307000000000002</v>
       </c>
-      <c r="G19" s="6">
-        <v>100</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2">
         <v>95.031000000000006</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="2">
         <v>4</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="2">
         <v>54.914999999999999</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="R20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>48.884</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2">
+        <v>94.888000000000005</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="2">
+        <v>7</v>
+      </c>
+      <c r="T20" s="2">
+        <v>48.975999999999999</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="1" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="R23" s="1" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="R23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="4" t="s">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="7"/>
+      <c r="X23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="7" t="s">
+      <c r="M24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X24" s="7" t="s">
+      <c r="V24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="7" t="s">
+      <c r="Y24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Z24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA24" s="7" t="s">
+      <c r="AA24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB24" s="7" t="s">
+      <c r="AB24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>8</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="2">
         <v>98.71</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>99.188000000000002</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="2">
         <v>99.128</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="6">
-        <v>10</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
         <v>99.15</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="2">
         <v>99.465999999999994</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="2">
         <v>99.435000000000002</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="2">
         <v>8</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="2">
         <v>98.71</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="2">
         <v>8</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="2">
         <v>99.188000000000002</v>
       </c>
-      <c r="X25" s="8" t="s">
+      <c r="X25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="6">
+      <c r="Y25" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="2">
         <v>99.15</v>
       </c>
-      <c r="AA25" s="9">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="6">
+      <c r="AA25" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="2">
         <v>99.465999999999994</v>
       </c>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="2">
         <v>99.754000000000005</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="2">
         <v>99.997</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="2">
         <v>99.966999999999999</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="6">
-        <v>10</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
         <v>99.825999999999993</v>
       </c>
-      <c r="M26" s="6">
-        <v>100</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="M26" s="2">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2">
         <v>99.983000000000004</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="2">
         <v>8</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="2">
         <v>99.754000000000005</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="1">
         <v>8</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="2">
         <v>99.997</v>
       </c>
-      <c r="X26" s="8" t="s">
+      <c r="X26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y26" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="6">
+      <c r="Y26" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="2">
         <v>99.825999999999993</v>
       </c>
-      <c r="AA26" s="9">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="6">
+      <c r="AA26" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
         <v>9</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="2">
         <v>99.816000000000003</v>
       </c>
-      <c r="G27" s="6">
-        <v>100</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2">
         <v>99.981999999999999</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2">
         <v>8</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="2">
         <v>99.775000000000006</v>
       </c>
-      <c r="M27" s="6">
-        <v>100</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="2">
+        <v>100</v>
+      </c>
+      <c r="N27" s="2">
         <v>99.974999999999994</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="6">
-        <v>10</v>
-      </c>
-      <c r="T27" s="6">
+      <c r="R27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="2">
+        <v>10</v>
+      </c>
+      <c r="T27" s="2">
         <v>99.816000000000003</v>
       </c>
-      <c r="U27" s="6">
-        <v>10</v>
-      </c>
-      <c r="V27" s="6">
-        <v>100</v>
-      </c>
-      <c r="X27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="6">
+      <c r="U27" s="2">
+        <v>10</v>
+      </c>
+      <c r="V27" s="2">
+        <v>100</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="2">
         <v>9</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="Z27" s="2">
         <v>99.775000000000006</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="2">
         <v>9</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="1" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3"/>
-      <c r="R30" s="1" t="s">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="R30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="1" t="s">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="7"/>
+      <c r="X30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="3"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X31" s="7" t="s">
+      <c r="V31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y31" s="7" t="s">
+      <c r="Y31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z31" s="7" t="s">
+      <c r="Z31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA31" s="7" t="s">
+      <c r="AA31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB31" s="7" t="s">
+      <c r="AB31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="6">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
         <v>99.385999999999996</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="2">
         <v>99.701999999999998</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <v>99.67</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="2">
         <v>9</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="2">
         <v>99.528999999999996</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="2">
         <v>99.763999999999996</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="2">
         <v>99.738</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S32" s="6">
-        <v>10</v>
-      </c>
-      <c r="T32" s="6">
+      <c r="S32" s="2">
+        <v>10</v>
+      </c>
+      <c r="T32" s="2">
         <v>99.385999999999996</v>
       </c>
-      <c r="U32" s="5">
-        <v>10</v>
-      </c>
-      <c r="V32" s="6">
+      <c r="U32" s="1">
+        <v>10</v>
+      </c>
+      <c r="V32" s="2">
         <v>99.701999999999998</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="2">
         <v>9</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="Z32" s="2">
         <v>99.528999999999996</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="2">
         <v>9</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32" s="2">
         <v>99.763999999999996</v>
       </c>
     </row>
     <row r="33" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="6">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
         <v>99.703000000000003</v>
       </c>
-      <c r="G33" s="6">
-        <v>100</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33" s="2">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2">
         <v>99.97</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="6">
-        <v>10</v>
-      </c>
-      <c r="L33" s="6">
+      <c r="K33" s="2">
+        <v>10</v>
+      </c>
+      <c r="L33" s="2">
         <v>99.754000000000005</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="2">
         <v>99.997</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="2">
         <v>99.971999999999994</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="2">
         <v>9</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="2">
         <v>99.724000000000004</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="2">
         <v>9</v>
       </c>
-      <c r="V33" s="6">
-        <v>100</v>
-      </c>
-      <c r="X33" s="8" t="s">
+      <c r="V33" s="2">
+        <v>100</v>
+      </c>
+      <c r="X33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y33" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="6">
+      <c r="Y33" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="2">
         <v>99.754000000000005</v>
       </c>
-      <c r="AA33" s="6">
-        <v>10</v>
-      </c>
-      <c r="AB33" s="6">
+      <c r="AA33" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
         <v>9</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="2">
         <v>99.775000000000006</v>
       </c>
-      <c r="G34" s="6">
-        <v>100</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2">
         <v>99.977000000000004</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2">
         <v>9</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="2">
         <v>99.733999999999995</v>
       </c>
-      <c r="M34" s="6">
-        <v>100</v>
-      </c>
-      <c r="N34" s="6">
+      <c r="M34" s="2">
+        <v>100</v>
+      </c>
+      <c r="N34" s="2">
         <v>99.972999999999999</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" s="6">
-        <v>10</v>
-      </c>
-      <c r="T34" s="6">
+      <c r="R34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="2">
+        <v>10</v>
+      </c>
+      <c r="T34" s="2">
         <v>99.775000000000006</v>
       </c>
-      <c r="U34" s="6">
-        <v>10</v>
-      </c>
-      <c r="V34" s="6">
-        <v>100</v>
-      </c>
-      <c r="X34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="6">
+      <c r="U34" s="2">
+        <v>10</v>
+      </c>
+      <c r="V34" s="2">
+        <v>100</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="2">
         <v>99.733999999999995</v>
       </c>
-      <c r="AA34" s="6">
-        <v>10</v>
-      </c>
-      <c r="AB34" s="6">
+      <c r="AA34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="AA35" s="5" t="s">
+      <c r="AA35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="R37" s="1" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="R37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="3"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="7"/>
     </row>
     <row r="38" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="T38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="U38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V38" s="7" t="s">
+      <c r="V38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="6">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
         <v>98.525000000000006</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="2">
         <v>98.804000000000002</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="2">
         <v>98.775999999999996</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S39" s="6">
-        <v>10</v>
-      </c>
-      <c r="T39" s="6">
+      <c r="S39" s="2">
+        <v>10</v>
+      </c>
+      <c r="T39" s="2">
         <v>98.525000000000006</v>
       </c>
-      <c r="U39" s="6">
-        <v>10</v>
-      </c>
-      <c r="V39" s="6">
+      <c r="U39" s="2">
+        <v>10</v>
+      </c>
+      <c r="V39" s="2">
         <v>98.804000000000002</v>
       </c>
     </row>
     <row r="40" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="6">
-        <v>10</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
         <v>98.832999999999998</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="2">
         <v>99.106999999999999</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="2">
         <v>99.078999999999994</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S40" s="6">
-        <v>10</v>
-      </c>
-      <c r="T40" s="6">
+      <c r="S40" s="2">
+        <v>10</v>
+      </c>
+      <c r="T40" s="2">
         <v>98.832999999999998</v>
       </c>
-      <c r="U40" s="6">
-        <v>10</v>
-      </c>
-      <c r="V40" s="6">
+      <c r="U40" s="2">
+        <v>10</v>
+      </c>
+      <c r="V40" s="2">
         <v>99.106999999999999</v>
       </c>
     </row>
     <row r="41" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2">
         <v>99.099000000000004</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>99.447000000000003</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="2">
         <v>99.397000000000006</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="6">
+      <c r="R41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="2">
         <v>9</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="2">
         <v>99.108999999999995</v>
       </c>
-      <c r="U41" s="6">
-        <v>7</v>
-      </c>
-      <c r="V41" s="6">
+      <c r="U41" s="2">
+        <v>7</v>
+      </c>
+      <c r="V41" s="2">
         <v>99.447000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="D37:H37"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="R16:V16"/>
@@ -1719,7 +1728,11 @@
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="J23:N23"/>
-    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="X30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE64F7-4473-7B42-9A4D-3C1CB5D26090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04854A8F-06CB-3447-B79E-C7E09B1E5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,3327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Success Rate Per Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35579531781047469"/>
+          <c:y val="3.0395136778115501E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2804599157008862E-2"/>
+          <c:y val="0.12185410334346504"/>
+          <c:w val="0.87245009253199923"/>
+          <c:h val="0.7887741425938779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7935727203000438E-2"/>
+                  <c:y val="-4.4095684847904645E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-68D2-484A-89E0-45E3E1DA28F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7246838783220491E-3"/>
+                  <c:y val="-4.4095684847904652E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-68D2-484A-89E0-45E3E1DA28F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>97.009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.346999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-68D2-484A-89E0-45E3E1DA28F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9383448382625162E-2"/>
+                  <c:y val="3.4931670775195656E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-68D2-484A-89E0-45E3E1DA28F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$11:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95.257999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-68D2-484A-89E0-45E3E1DA28F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8766826398710886E-2"/>
+                  <c:y val="-4.4095684847904763E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-68D2-484A-89E0-45E3E1DA28F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$4:$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$18:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58.223999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.975999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68D2-484A-89E0-45E3E1DA28F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1280095088"/>
+        <c:axId val="1279963440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1280095088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Image Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46429770675448412"/>
+              <c:y val="0.95378407486298256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279963440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279963440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="98.4"/>
+          <c:min val="48"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Success Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.1492403932082215E-3"/>
+              <c:y val="0.43127156977718212"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1280095088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69690950159380216"/>
+          <c:y val="2.7629179331307006E-2"/>
+          <c:w val="0.2817840732374941"/>
+          <c:h val="6.0410693344183038E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Success Rate Per Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3528459746821188E-2"/>
+          <c:y val="0.11273556231003042"/>
+          <c:w val="0.87245009253199923"/>
+          <c:h val="0.7887741425938779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4021518087718992E-2"/>
+                  <c:y val="-1.3655075030514831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8811509151168441E-2"/>
+                  <c:y val="-6.5326807553311161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$25:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.816000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DE4E-E447-B4E6-124D2DC85ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7114197856635209E-3"/>
+                  <c:y val="2.5858602781035349E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5808828186021047E-2"/>
+                  <c:y val="-2.8852643419572582E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$25:$Z$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.825999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DE4E-E447-B4E6-124D2DC85ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2118666131880966E-3"/>
+                  <c:y val="2.8898116458846844E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9723037301302551E-2"/>
+                  <c:y val="4.1056171170093102E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$32:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.385999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.724000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DE4E-E447-B4E6-124D2DC85ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DE4E-E447-B4E6-124D2DC85ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN  (Complex Model, 11 Epochs, 100 Batch Size, &lt;size&gt; Filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64x64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128x128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$39:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98.525000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.108999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DE4E-E447-B4E6-124D2DC85ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1280095088"/>
+        <c:axId val="1279963440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1280095088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Image Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47680887744259859"/>
+              <c:y val="0.95074456118517103"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279963440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279963440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="98.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Success Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1280095088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.53962621294322122"/>
+          <c:y val="0.65984802431610945"/>
+          <c:w val="0.45359481539338414"/>
+          <c:h val="0.25190149103702464"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C431C83E-1AE4-71FB-257A-71F0E544CFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6850FB-A7D7-2B4D-BD8E-E9015143BF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1717,6 +5038,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="X30:AB30"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="R9:V9"/>
@@ -1731,9 +5054,8 @@
     <mergeCell ref="R37:V37"/>
     <mergeCell ref="R23:V23"/>
     <mergeCell ref="R30:V30"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="X30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04854A8F-06CB-3447-B79E-C7E09B1E5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AF674B-7846-440D-9E35-ECF50C03C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -218,6 +218,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,9 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -318,7 +318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -447,7 +447,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -465,10 +465,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -546,8 +543,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9383448382625162E-2"/>
-                  <c:y val="3.4931670775195656E-2"/>
+                  <c:x val="-3.9383468008096126E-2"/>
+                  <c:y val="5.1112809927885229E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -590,7 +587,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -608,10 +605,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="7030A0"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -733,7 +727,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -884,7 +878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -922,7 +916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -1030,7 +1024,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1062,7 +1056,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -1111,7 +1105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1148,7 +1142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1222,7 +1216,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1285,8 +1279,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4021518087718992E-2"/>
-                  <c:y val="-1.3655075030514831E-2"/>
+                  <c:x val="-7.6929728241657572E-2"/>
+                  <c:y val="9.637718828835716E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1307,8 +1301,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8811509151168441E-2"/>
-                  <c:y val="-6.5326807553311161E-2"/>
+                  <c:x val="-6.6097935612637326E-2"/>
+                  <c:y val="-4.5909334148765385E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1351,7 +1345,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1369,10 +1363,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -1489,8 +1480,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5808828186021047E-2"/>
-                  <c:y val="-2.8852643419572582E-2"/>
+                  <c:x val="-5.4879105546848418E-2"/>
+                  <c:y val="-3.8561272074000487E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1504,6 +1495,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4414172602680896E-3"/>
+                  <c:y val="-7.2791325841551374E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0C4F-4794-AB9C-8E4200FA25AB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1533,7 +1546,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1551,10 +1564,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -1674,8 +1684,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9723037301302551E-2"/>
-                  <c:y val="4.1056171170093102E-2"/>
+                  <c:x val="7.2932718928607129E-3"/>
+                  <c:y val="3.7819993374614579E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1689,6 +1699,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-DE4E-E447-B4E6-124D2DC85ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.456577165041509E-2"/>
+                  <c:y val="5.9894758300843461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0C4F-4794-AB9C-8E4200FA25AB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1718,7 +1750,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1736,10 +1768,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent6"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -1856,7 +1885,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1985,7 +2014,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2136,7 +2165,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2174,7 +2203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -2274,7 +2303,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2306,7 +2335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -2355,7 +2384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2392,7 +2421,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3867,53 +3896,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="S7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.77734375" style="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.77734375" style="1"/>
     <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.77734375" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="R2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
@@ -4044,20 +4073,20 @@
       </c>
     </row>
     <row r="9" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="R9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="R9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
@@ -4188,20 +4217,20 @@
       </c>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="R16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="R16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
@@ -4332,34 +4361,34 @@
       </c>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="5" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
-      <c r="R23" s="5" t="s">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="R23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="7"/>
-      <c r="X23" s="8" t="s">
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="8"/>
+      <c r="X23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
@@ -4610,34 +4639,34 @@
       </c>
     </row>
     <row r="30" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="J30" s="5" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
-      <c r="R30" s="5" t="s">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="R30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="7"/>
-      <c r="X30" s="5" t="s">
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8"/>
+      <c r="X30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
@@ -4893,20 +4922,20 @@
       </c>
     </row>
     <row r="37" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="R37" s="5" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="R37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="8"/>
     </row>
     <row r="38" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AF674B-7846-440D-9E35-ECF50C03C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2556FEF4-D69A-0444-BB04-D4AA8FAE3302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36240" windowHeight="20060" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="25">
   <si>
     <t>LDA</t>
   </si>
@@ -100,6 +100,18 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>זמני ריצה</t>
+  </si>
+  <si>
+    <t>Time (Minutes)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>אחוזי הצלחה</t>
+  </si>
 </sst>
 </file>
 
@@ -109,12 +121,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +151,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -200,11 +218,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +326,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -318,7 +446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -343,7 +471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Sheet1!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -447,7 +575,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -477,7 +605,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$4:$T$6</c:f>
+              <c:f>Sheet1!$T$7:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -505,7 +633,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$9</c:f>
+              <c:f>Sheet1!$R$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -587,7 +715,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -617,7 +745,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$11:$T$13</c:f>
+              <c:f>Sheet1!$T$14:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -645,7 +773,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$16</c:f>
+              <c:f>Sheet1!$R$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -727,7 +855,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -760,24 +888,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$4:$R$6</c:f>
+              <c:f>Sheet1!$R$7:$R$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>32x32</c:v>
+                  <c:v>Size</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64x64</c:v>
+                  <c:v>Size</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128x128</c:v>
+                  <c:v>Size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$18:$T$20</c:f>
+              <c:f>Sheet1!$T$21:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -878,7 +1006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -916,7 +1044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -1024,7 +1152,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1056,7 +1184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -1105,7 +1233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1142,7 +1270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1216,7 +1344,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1241,7 +1369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$23</c:f>
+              <c:f>Sheet1!$R$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1345,7 +1473,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1375,7 +1503,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:f>Sheet1!$R$21:$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1392,7 +1520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$25:$T$27</c:f>
+              <c:f>Sheet1!$T$28:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1420,7 +1548,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$23</c:f>
+              <c:f>Sheet1!$X$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1546,7 +1674,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1576,7 +1704,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:f>Sheet1!$R$21:$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1593,7 +1721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$25:$Z$27</c:f>
+              <c:f>Sheet1!$Z$28:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1621,7 +1749,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$30</c:f>
+              <c:f>Sheet1!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1750,7 +1878,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1780,7 +1908,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:f>Sheet1!$R$21:$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1797,7 +1925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$32:$T$34</c:f>
+              <c:f>Sheet1!$T$35:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1825,7 +1953,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$30</c:f>
+              <c:f>Sheet1!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +2013,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1918,7 +2046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:f>Sheet1!$R$21:$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1954,7 +2082,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$37</c:f>
+              <c:f>Sheet1!$R$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,7 +2142,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2047,7 +2175,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$18:$R$20</c:f>
+              <c:f>Sheet1!$R$21:$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2064,7 +2192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$39:$T$41</c:f>
+              <c:f>Sheet1!$T$42:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2165,7 +2293,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2203,7 +2331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -2303,7 +2431,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2335,7 +2463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -2384,7 +2512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2421,7 +2549,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3523,15 +3651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>715736</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3559,15 +3687,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>736599</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>192314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3894,1195 +4022,3055 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
-  <dimension ref="D2:AB41"/>
+  <dimension ref="D1:BA82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" style="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
     <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.77734375" style="1"/>
-    <col min="19" max="19" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.77734375" style="1"/>
+    <col min="29" max="41" width="10.83203125" style="1"/>
+    <col min="42" max="42" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.33203125" style="1" customWidth="1"/>
+    <col min="44" max="45" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="52" width="20.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.83203125" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D2" s="6" t="s">
+    <row r="1" spans="4:53" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="11"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="11"/>
+    </row>
+    <row r="3" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="14"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="14"/>
+    </row>
+    <row r="4" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="R2" s="5" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="Q4" s="12"/>
+      <c r="Y4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="14"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="14"/>
+    </row>
+    <row r="5" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="14"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="14"/>
+    </row>
+    <row r="6" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>96.968999999999994</v>
+      </c>
+      <c r="G6" s="2">
+        <v>98.373000000000005</v>
+      </c>
+      <c r="H6" s="2">
+        <v>98.198999999999998</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="14"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="14"/>
+    </row>
+    <row r="7" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>97.346999999999994</v>
+      </c>
+      <c r="G7" s="2">
+        <v>99.933000000000007</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99.674000000000007</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2">
+        <v>6</v>
+      </c>
+      <c r="T7" s="2">
+        <v>97.009</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>99.15</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="14"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>5.2694999999999999</v>
+      </c>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="14"/>
+    </row>
+    <row r="8" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>65.015000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>96.501000000000005</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>10</v>
+      </c>
+      <c r="T8" s="2">
+        <v>97.346999999999994</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>100</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="14"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>82.537800000000004</v>
+      </c>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="14"/>
+    </row>
+    <row r="9" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2">
+        <v>70.73</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="14"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>405.30700000000002</v>
+      </c>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="14"/>
+    </row>
+    <row r="10" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="14"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f>AVERAGE(AQ7:AQ9)</f>
+        <v>164.37143333333333</v>
+      </c>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="14"/>
+    </row>
+    <row r="11" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="14"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="14"/>
+    </row>
+    <row r="12" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="14"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="14"/>
+    </row>
+    <row r="13" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>95.238</v>
+      </c>
+      <c r="G13" s="2">
+        <v>95.459000000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>95.421999999999997</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D4" s="4" t="s">
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="14"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="14"/>
+    </row>
+    <row r="14" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>96.466999999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>96.881</v>
+      </c>
+      <c r="H14" s="2">
+        <v>96.742999999999995</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="S14" s="2">
+        <v>9</v>
+      </c>
+      <c r="T14" s="2">
+        <v>95.257999999999996</v>
+      </c>
+      <c r="U14" s="2">
+        <v>2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>95.677999999999997</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="14"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="14"/>
+    </row>
+    <row r="15" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>96.885999999999996</v>
+      </c>
+      <c r="G15" s="2">
+        <v>97.299000000000007</v>
+      </c>
+      <c r="H15" s="2">
+        <v>97.253</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2">
+        <v>96.466999999999999</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>97.111000000000004</v>
+      </c>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="14"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>2.4952999999999999</v>
+      </c>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="14"/>
+    </row>
+    <row r="16" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3</v>
+      </c>
+      <c r="T16" s="2">
+        <v>96.887</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>97.634</v>
+      </c>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="14"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>6.4211999999999998</v>
+      </c>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="14"/>
+    </row>
+    <row r="17" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="14"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>28.209599999999998</v>
+      </c>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="14"/>
+    </row>
+    <row r="18" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="14"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f>AVERAGE(AQ15:AQ17)</f>
+        <v>12.375366666666665</v>
+      </c>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="14"/>
+    </row>
+    <row r="19" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
-        <v>96.968999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>98.373000000000005</v>
-      </c>
-      <c r="H4" s="2">
-        <v>98.198999999999998</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="14"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="14"/>
+    </row>
+    <row r="20" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>6</v>
-      </c>
-      <c r="T4" s="2">
-        <v>97.009</v>
-      </c>
-      <c r="U4" s="2">
-        <v>2</v>
-      </c>
-      <c r="V4" s="2">
-        <v>99.15</v>
-      </c>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>97.346999999999994</v>
-      </c>
-      <c r="G5" s="2">
-        <v>99.933000000000007</v>
-      </c>
-      <c r="H5" s="2">
-        <v>99.674000000000007</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="2">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2">
-        <v>97.346999999999994</v>
-      </c>
-      <c r="U5" s="2">
-        <v>2</v>
-      </c>
-      <c r="V5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>65.015000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>100</v>
-      </c>
-      <c r="H6" s="2">
-        <v>96.501000000000005</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="2">
-        <v>3</v>
-      </c>
-      <c r="T6" s="2">
-        <v>70.73</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="R9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>95.238</v>
-      </c>
-      <c r="G11" s="2">
-        <v>95.459000000000003</v>
-      </c>
-      <c r="H11" s="2">
-        <v>95.421999999999997</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>9</v>
-      </c>
-      <c r="T11" s="2">
-        <v>95.257999999999996</v>
-      </c>
-      <c r="U11" s="2">
-        <v>2</v>
-      </c>
-      <c r="V11" s="2">
-        <v>95.677999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>96.466999999999999</v>
-      </c>
-      <c r="G12" s="2">
-        <v>96.881</v>
-      </c>
-      <c r="H12" s="2">
-        <v>96.742999999999995</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="2">
-        <v>3</v>
-      </c>
-      <c r="T12" s="2">
-        <v>96.466999999999999</v>
-      </c>
-      <c r="U12" s="2">
-        <v>2</v>
-      </c>
-      <c r="V12" s="2">
-        <v>97.111000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2">
-        <v>96.885999999999996</v>
-      </c>
-      <c r="G13" s="2">
-        <v>97.299000000000007</v>
-      </c>
-      <c r="H13" s="2">
-        <v>97.253</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="2">
-        <v>3</v>
-      </c>
-      <c r="T13" s="2">
-        <v>96.887</v>
-      </c>
-      <c r="U13" s="2">
-        <v>2</v>
-      </c>
-      <c r="V13" s="2">
-        <v>97.634</v>
-      </c>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="R16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>58.223999999999997</v>
-      </c>
-      <c r="G18" s="2">
-        <v>93.820999999999998</v>
-      </c>
-      <c r="H18" s="2">
-        <v>90.260999999999996</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="2">
-        <v>10</v>
-      </c>
-      <c r="T18" s="2">
-        <v>58.223999999999997</v>
-      </c>
-      <c r="U18" s="2">
-        <v>2</v>
-      </c>
-      <c r="V18" s="2">
-        <v>96.814999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50.307000000000002</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2">
-        <v>95.031000000000006</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="2">
-        <v>4</v>
-      </c>
-      <c r="T19" s="2">
-        <v>54.914999999999999</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
+        <v>58.223999999999997</v>
+      </c>
+      <c r="G20" s="2">
+        <v>93.820999999999998</v>
+      </c>
+      <c r="H20" s="2">
+        <v>90.260999999999996</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="14"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="14"/>
+    </row>
+    <row r="21" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>50.307000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2">
+        <v>95.031000000000006</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>10</v>
+      </c>
+      <c r="T21" s="2">
+        <v>58.223999999999997</v>
+      </c>
+      <c r="U21" s="2">
+        <v>2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>96.814999999999998</v>
+      </c>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="14"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="14"/>
+    </row>
+    <row r="22" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
         <v>48.884</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <v>100</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>94.888000000000005</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="2">
+        <v>4</v>
+      </c>
+      <c r="T22" s="2">
+        <v>54.914999999999999</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="2">
+        <v>100</v>
+      </c>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="14"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="14"/>
+    </row>
+    <row r="23" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S23" s="2">
         <v>7</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T23" s="2">
         <v>48.975999999999999</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V23" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D23" s="6" t="s">
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="14"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>7.3962000000000003</v>
+      </c>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="14"/>
+    </row>
+    <row r="24" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="14"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>51.4114</v>
+      </c>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="14"/>
+    </row>
+    <row r="25" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="6" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8"/>
-      <c r="R23" s="6" t="s">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="14"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>256.59190000000001</v>
+      </c>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="14"/>
+    </row>
+    <row r="26" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="8"/>
-      <c r="X23" s="5" t="s">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D24" s="3" t="s">
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="14"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ26" s="2">
+        <f>AVERAGE(AQ23:AQ25)</f>
+        <v>105.13316666666667</v>
+      </c>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="14"/>
+    </row>
+    <row r="27" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>98.71</v>
+      </c>
+      <c r="G27" s="2">
+        <v>99.188000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99.128</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2">
+        <v>99.15</v>
+      </c>
+      <c r="M27" s="2">
+        <v>99.465999999999994</v>
+      </c>
+      <c r="N27" s="2">
+        <v>99.435000000000002</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="S27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="13"/>
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="14"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="14"/>
+    </row>
+    <row r="28" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>99.997</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99.966999999999999</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <v>99.825999999999993</v>
+      </c>
+      <c r="M28" s="2">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2">
+        <v>99.983000000000004</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>98.71</v>
+      </c>
+      <c r="U28" s="2">
+        <v>8</v>
+      </c>
+      <c r="V28" s="2">
+        <v>99.188000000000002</v>
+      </c>
+      <c r="W28" s="13"/>
+      <c r="X28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>99.15</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>99.465999999999994</v>
+      </c>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="14"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="14"/>
+    </row>
+    <row r="29" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>99.816000000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>100</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99.981999999999999</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2">
+        <v>8</v>
+      </c>
+      <c r="L29" s="2">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="M29" s="2">
+        <v>100</v>
+      </c>
+      <c r="N29" s="2">
+        <v>99.974999999999994</v>
+      </c>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="2">
+        <v>8</v>
+      </c>
+      <c r="T29" s="2">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="U29" s="13">
+        <v>8</v>
+      </c>
+      <c r="V29" s="2">
+        <v>99.997</v>
+      </c>
+      <c r="W29" s="13"/>
+      <c r="X29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>99.825999999999993</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="14"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="14"/>
+    </row>
+    <row r="30" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="2">
+        <v>10</v>
+      </c>
+      <c r="T30" s="2">
+        <v>99.816000000000003</v>
+      </c>
+      <c r="U30" s="2">
+        <v>10</v>
+      </c>
+      <c r="V30" s="2">
+        <v>100</v>
+      </c>
+      <c r="W30" s="13"/>
+      <c r="X30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="14"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="14"/>
+    </row>
+    <row r="31" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="14"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="14"/>
+    </row>
+    <row r="32" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="14"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="14"/>
+    </row>
+    <row r="33" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D25" s="4" t="s">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="14"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="14"/>
+    </row>
+    <row r="34" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>98.71</v>
-      </c>
-      <c r="G25" s="2">
-        <v>99.188000000000002</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99.128</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>99.385999999999996</v>
+      </c>
+      <c r="G34" s="2">
+        <v>99.701999999999998</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99.67</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>10</v>
-      </c>
-      <c r="L25" s="2">
-        <v>99.15</v>
-      </c>
-      <c r="M25" s="2">
-        <v>99.465999999999994</v>
-      </c>
-      <c r="N25" s="2">
-        <v>99.435000000000002</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2">
-        <v>8</v>
-      </c>
-      <c r="T25" s="2">
-        <v>98.71</v>
-      </c>
-      <c r="U25" s="2">
-        <v>8</v>
-      </c>
-      <c r="V25" s="2">
-        <v>99.188000000000002</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>99.15</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>99.465999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="G26" s="2">
-        <v>99.997</v>
-      </c>
-      <c r="H26" s="2">
-        <v>99.966999999999999</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="2">
-        <v>10</v>
-      </c>
-      <c r="L26" s="2">
-        <v>99.825999999999993</v>
-      </c>
-      <c r="M26" s="2">
-        <v>100</v>
-      </c>
-      <c r="N26" s="2">
-        <v>99.983000000000004</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S26" s="2">
-        <v>8</v>
-      </c>
-      <c r="T26" s="2">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="U26" s="1">
-        <v>8</v>
-      </c>
-      <c r="V26" s="2">
-        <v>99.997</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>99.825999999999993</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2">
-        <v>99.816000000000003</v>
-      </c>
-      <c r="G27" s="2">
-        <v>100</v>
-      </c>
-      <c r="H27" s="2">
-        <v>99.981999999999999</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2">
-        <v>8</v>
-      </c>
-      <c r="L27" s="2">
-        <v>99.775000000000006</v>
-      </c>
-      <c r="M27" s="2">
-        <v>100</v>
-      </c>
-      <c r="N27" s="2">
-        <v>99.974999999999994</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="2">
-        <v>10</v>
-      </c>
-      <c r="T27" s="2">
-        <v>99.816000000000003</v>
-      </c>
-      <c r="U27" s="2">
-        <v>10</v>
-      </c>
-      <c r="V27" s="2">
-        <v>100</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>99.775000000000006</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="8"/>
-      <c r="R30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="8"/>
-      <c r="X30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
-        <v>99.385999999999996</v>
-      </c>
-      <c r="G32" s="2">
-        <v>99.701999999999998</v>
-      </c>
-      <c r="H32" s="2">
-        <v>99.67</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>9</v>
-      </c>
-      <c r="L32" s="2">
-        <v>99.528999999999996</v>
-      </c>
-      <c r="M32" s="2">
-        <v>99.763999999999996</v>
-      </c>
-      <c r="N32" s="2">
-        <v>99.738</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" s="2">
-        <v>10</v>
-      </c>
-      <c r="T32" s="2">
-        <v>99.385999999999996</v>
-      </c>
-      <c r="U32" s="1">
-        <v>10</v>
-      </c>
-      <c r="V32" s="2">
-        <v>99.701999999999998</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>99.528999999999996</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>99.763999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
-        <v>99.703000000000003</v>
-      </c>
-      <c r="G33" s="2">
-        <v>100</v>
-      </c>
-      <c r="H33" s="2">
-        <v>99.97</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="2">
-        <v>10</v>
-      </c>
-      <c r="L33" s="2">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="M33" s="2">
-        <v>99.997</v>
-      </c>
-      <c r="N33" s="2">
-        <v>99.971999999999994</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" s="2">
-        <v>9</v>
-      </c>
-      <c r="T33" s="2">
-        <v>99.724000000000004</v>
-      </c>
-      <c r="U33" s="2">
-        <v>9</v>
-      </c>
-      <c r="V33" s="2">
-        <v>100</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>99.754000000000005</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2">
-        <v>99.775000000000006</v>
-      </c>
-      <c r="G34" s="2">
-        <v>100</v>
-      </c>
-      <c r="H34" s="2">
-        <v>99.977000000000004</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="K34" s="2">
         <v>9</v>
       </c>
       <c r="L34" s="2">
+        <v>99.528999999999996</v>
+      </c>
+      <c r="M34" s="2">
+        <v>99.763999999999996</v>
+      </c>
+      <c r="N34" s="2">
+        <v>99.738</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="13"/>
+      <c r="X34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="14"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ34" s="2" t="e">
+        <f>AVERAGE(AQ31:AQ33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT34" s="2" t="e">
+        <f>AVERAGE(AT31:AT33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="14"/>
+    </row>
+    <row r="35" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>99.703000000000003</v>
+      </c>
+      <c r="G35" s="2">
+        <v>100</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99.97</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="2">
+        <v>10</v>
+      </c>
+      <c r="L35" s="2">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="M35" s="2">
+        <v>99.997</v>
+      </c>
+      <c r="N35" s="2">
+        <v>99.971999999999994</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>10</v>
+      </c>
+      <c r="T35" s="2">
+        <v>99.385999999999996</v>
+      </c>
+      <c r="U35" s="13">
+        <v>10</v>
+      </c>
+      <c r="V35" s="2">
+        <v>99.701999999999998</v>
+      </c>
+      <c r="W35" s="13"/>
+      <c r="X35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>99.528999999999996</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>99.763999999999996</v>
+      </c>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="14"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="14"/>
+    </row>
+    <row r="36" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="G36" s="2">
+        <v>100</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99.977000000000004</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
         <v>99.733999999999995</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M36" s="2">
         <v>100</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N36" s="2">
         <v>99.972999999999999</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="Q36" s="12"/>
+      <c r="R36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="2">
+        <v>9</v>
+      </c>
+      <c r="T36" s="2">
+        <v>99.724000000000004</v>
+      </c>
+      <c r="U36" s="2">
+        <v>9</v>
+      </c>
+      <c r="V36" s="2">
+        <v>100</v>
+      </c>
+      <c r="W36" s="13"/>
+      <c r="X36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>99.754000000000005</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="14"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="14"/>
+    </row>
+    <row r="37" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q37" s="12"/>
+      <c r="R37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S37" s="2">
         <v>10</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T37" s="2">
         <v>99.775000000000006</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U37" s="2">
         <v>10</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V37" s="2">
         <v>100</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="W37" s="13"/>
+      <c r="X37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y37" s="2">
         <v>10</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z37" s="2">
         <v>99.733999999999995</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA37" s="2">
         <v>10</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AB37" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="AA35" s="1" t="s">
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="14"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="13"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="14"/>
+    </row>
+    <row r="38" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q38" s="12"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D37" s="6" t="s">
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="14"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="14"/>
+    </row>
+    <row r="39" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="R37" s="6" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="14"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="14"/>
+    </row>
+    <row r="40" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
-    </row>
-    <row r="38" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D38" s="3" t="s">
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="14"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="14"/>
+    </row>
+    <row r="41" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>98.525000000000006</v>
+      </c>
+      <c r="G41" s="2">
+        <v>98.804000000000002</v>
+      </c>
+      <c r="H41" s="2">
+        <v>98.775999999999996</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="U41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="3" t="s">
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="14"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="14"/>
+    </row>
+    <row r="42" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>98.832999999999998</v>
+      </c>
+      <c r="G42" s="2">
+        <v>99.106999999999999</v>
+      </c>
+      <c r="H42" s="2">
+        <v>99.078999999999994</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2">
+        <v>10</v>
+      </c>
+      <c r="T42" s="2">
+        <v>98.525000000000006</v>
+      </c>
+      <c r="U42" s="2">
+        <v>10</v>
+      </c>
+      <c r="V42" s="2">
+        <v>98.804000000000002</v>
+      </c>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="14"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ42" s="2" t="e">
+        <f>AVERAGE(AQ39:AQ41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT42" s="2" t="e">
+        <f>AVERAGE(AT39:AT41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="13"/>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13"/>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="14"/>
+    </row>
+    <row r="43" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2">
+        <v>99.099000000000004</v>
+      </c>
+      <c r="G43" s="2">
+        <v>99.447000000000003</v>
+      </c>
+      <c r="H43" s="2">
+        <v>99.397000000000006</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S43" s="2">
+        <v>10</v>
+      </c>
+      <c r="T43" s="2">
+        <v>98.832999999999998</v>
+      </c>
+      <c r="U43" s="2">
+        <v>10</v>
+      </c>
+      <c r="V43" s="2">
+        <v>99.106999999999999</v>
+      </c>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="14"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="13"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="13"/>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="14"/>
+    </row>
+    <row r="44" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q44" s="12"/>
+      <c r="R44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="2">
+        <v>9</v>
+      </c>
+      <c r="T44" s="2">
+        <v>99.108999999999995</v>
+      </c>
+      <c r="U44" s="2">
+        <v>7</v>
+      </c>
+      <c r="V44" s="2">
+        <v>99.447000000000003</v>
+      </c>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="14"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="13"/>
+      <c r="AW44" s="13"/>
+      <c r="AX44" s="13"/>
+      <c r="AY44" s="13"/>
+      <c r="AZ44" s="13"/>
+      <c r="BA44" s="14"/>
+    </row>
+    <row r="45" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q45" s="12"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="14"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="14"/>
+    </row>
+    <row r="46" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q46" s="12"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="14"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D39" s="4" t="s">
+      <c r="AQ46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="14"/>
+    </row>
+    <row r="47" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="14"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2">
-        <v>98.525000000000006</v>
-      </c>
-      <c r="G39" s="2">
-        <v>98.804000000000002</v>
-      </c>
-      <c r="H39" s="2">
-        <v>98.775999999999996</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S39" s="2">
-        <v>10</v>
-      </c>
-      <c r="T39" s="2">
-        <v>98.525000000000006</v>
-      </c>
-      <c r="U39" s="2">
-        <v>10</v>
-      </c>
-      <c r="V39" s="2">
-        <v>98.804000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D40" s="4" t="s">
+      <c r="AQ47" s="2">
+        <v>8.3231999999999999</v>
+      </c>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="14"/>
+    </row>
+    <row r="48" spans="4:53" x14ac:dyDescent="0.2">
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="14"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="2">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
-        <v>98.832999999999998</v>
-      </c>
-      <c r="G40" s="2">
-        <v>99.106999999999999</v>
-      </c>
-      <c r="H40" s="2">
-        <v>99.078999999999994</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S40" s="2">
-        <v>10</v>
-      </c>
-      <c r="T40" s="2">
-        <v>98.832999999999998</v>
-      </c>
-      <c r="U40" s="2">
-        <v>10</v>
-      </c>
-      <c r="V40" s="2">
-        <v>99.106999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D41" s="4" t="s">
+      <c r="AQ48" s="2">
+        <v>33.345100000000002</v>
+      </c>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="14"/>
+    </row>
+    <row r="49" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="Q49" s="12"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="14"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="2">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2">
-        <v>99.099000000000004</v>
-      </c>
-      <c r="G41" s="2">
-        <v>99.447000000000003</v>
-      </c>
-      <c r="H41" s="2">
-        <v>99.397000000000006</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="2">
-        <v>9</v>
-      </c>
-      <c r="T41" s="2">
-        <v>99.108999999999995</v>
-      </c>
-      <c r="U41" s="2">
-        <v>7</v>
-      </c>
-      <c r="V41" s="2">
-        <v>99.447000000000003</v>
-      </c>
+      <c r="AQ49" s="2">
+        <v>101.1771</v>
+      </c>
+      <c r="AR49" s="13"/>
+      <c r="AS49" s="13"/>
+      <c r="AT49" s="13"/>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="13"/>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="13"/>
+      <c r="AY49" s="13"/>
+      <c r="AZ49" s="13"/>
+      <c r="BA49" s="14"/>
+    </row>
+    <row r="50" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="Q50" s="12"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="14"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ50" s="2">
+        <f>AVERAGE(AQ47:AQ49)</f>
+        <v>47.615133333333326</v>
+      </c>
+      <c r="AR50" s="13"/>
+      <c r="AS50" s="13"/>
+      <c r="AT50" s="13"/>
+      <c r="AU50" s="13"/>
+      <c r="AV50" s="13"/>
+      <c r="AW50" s="13"/>
+      <c r="AX50" s="13"/>
+      <c r="AY50" s="13"/>
+      <c r="AZ50" s="13"/>
+      <c r="BA50" s="14"/>
+    </row>
+    <row r="51" spans="17:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="17"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="16"/>
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16"/>
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16"/>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16"/>
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="17"/>
+    </row>
+    <row r="52" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP52" s="13"/>
+    </row>
+    <row r="53" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP53" s="13"/>
+    </row>
+    <row r="54" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP54" s="13"/>
+    </row>
+    <row r="55" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP55" s="13"/>
+    </row>
+    <row r="56" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP56" s="13"/>
+    </row>
+    <row r="57" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP57" s="13"/>
+    </row>
+    <row r="58" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP58" s="13"/>
+    </row>
+    <row r="59" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP59" s="13"/>
+    </row>
+    <row r="60" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP60" s="13"/>
+    </row>
+    <row r="61" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP61" s="13"/>
+    </row>
+    <row r="62" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP62" s="13"/>
+    </row>
+    <row r="63" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP63" s="13"/>
+    </row>
+    <row r="64" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="AP64" s="13"/>
+    </row>
+    <row r="65" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP65" s="13"/>
+    </row>
+    <row r="66" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP66" s="13"/>
+    </row>
+    <row r="67" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP67" s="13"/>
+    </row>
+    <row r="68" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP68" s="13"/>
+    </row>
+    <row r="69" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP69" s="13"/>
+    </row>
+    <row r="70" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP70" s="13"/>
+    </row>
+    <row r="71" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AP71" s="13"/>
+    </row>
+    <row r="78" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AQ78" s="13"/>
+      <c r="AR78" s="13"/>
+      <c r="AS78" s="13"/>
+      <c r="AT78" s="13"/>
+      <c r="AU78" s="13"/>
+      <c r="AV78" s="13"/>
+      <c r="AW78" s="13"/>
+      <c r="AX78" s="13"/>
+      <c r="AY78" s="13"/>
+      <c r="AZ78" s="13"/>
+      <c r="BA78" s="13"/>
+    </row>
+    <row r="79" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AQ79" s="13"/>
+      <c r="AR79" s="13"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="13"/>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+    </row>
+    <row r="80" spans="42:53" x14ac:dyDescent="0.2">
+      <c r="AR80" s="13"/>
+      <c r="AS80" s="13"/>
+    </row>
+    <row r="81" spans="44:45" x14ac:dyDescent="0.2">
+      <c r="AR81" s="13"/>
+      <c r="AS81" s="13"/>
+    </row>
+    <row r="82" spans="44:45" x14ac:dyDescent="0.2">
+      <c r="AR82" s="13"/>
+      <c r="AS82" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="X30:AB30"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="R30:V30"/>
+  <mergeCells count="26">
+    <mergeCell ref="Y4:AI4"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="X33:AB33"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="J25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2556FEF4-D69A-0444-BB04-D4AA8FAE3302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6997A-B935-C448-9290-88FA8D0BA6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36240" windowHeight="20060" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,18 +314,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,9 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,7 +340,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,6 +546,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5692653029631349E-2"/>
+                  <c:y val="-5.6253726095846134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AC26-4F48-A01E-372CFDEE1E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -668,6 +687,28 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5119939766242356E-3"/>
+                  <c:y val="4.7089714216376463E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AC26-4F48-A01E-372CFDEE1E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -686,6 +727,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-68D2-484A-89E0-45E3E1DA28F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2001857676637474E-2"/>
+                  <c:y val="7.7484843719971316E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AC26-4F48-A01E-372CFDEE1E36}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -808,11 +871,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3297657497906604E-2"/>
+                  <c:y val="4.4050201266016976E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AC26-4F48-A01E-372CFDEE1E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7596138284323101E-2"/>
+                  <c:y val="5.0129227166735839E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AC26-4F48-A01E-372CFDEE1E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8766826398710886E-2"/>
-                  <c:y val="-4.4095684847904763E-2"/>
+                  <c:x val="-5.5576477873241582E-2"/>
+                  <c:y val="-5.3214213145486758E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -873,10 +980,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -1322,6 +1426,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35400800771217272"/>
+          <c:y val="3.0554339931226269E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1356,9 +1468,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.3528459746821188E-2"/>
-          <c:y val="0.11273556231003042"/>
-          <c:w val="0.87245009253199923"/>
-          <c:h val="0.7887741425938779"/>
+          <c:y val="0.10051391437422909"/>
+          <c:w val="0.861726231942187"/>
+          <c:h val="0.78571880528200344"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1403,6 +1515,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9034782180377586E-2"/>
+                  <c:y val="-1.5048613879513411E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
@@ -1586,8 +1720,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.7114197856635209E-3"/>
-                  <c:y val="2.5858602781035349E-2"/>
+                  <c:x val="-1.3494894907573551E-3"/>
+                  <c:y val="5.0302066940949956E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1790,8 +1924,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.2118666131880966E-3"/>
-                  <c:y val="2.8898116458846844E-2"/>
+                  <c:x val="-1.0786486809792207E-2"/>
+                  <c:y val="4.4175320321354669E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1834,8 +1968,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.456577165041509E-2"/>
-                  <c:y val="5.9894758300843461E-2"/>
+                  <c:x val="-3.8418723128777802E-3"/>
+                  <c:y val="5.6839252174109699E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1987,6 +2121,72 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4361107006396319E-2"/>
+                  <c:y val="-5.9558107257281286E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11445047251131149"/>
+                  <c:y val="-3.205920131917761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5960749544376658E-2"/>
+                  <c:y val="3.5160346529520187E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2031,10 +2231,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent4"/>
                       </a:solidFill>
                       <a:round/>
                     </a:ln>
@@ -2062,13 +2259,22 @@
             </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$Z$35:$Z$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>99.528999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.733999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2094,7 +2300,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2116,6 +2325,72 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6148417104698373E-2"/>
+                  <c:y val="3.8215780522642698E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3002751331686825E-2"/>
+                  <c:y val="-2.9003767326054985E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8087648561355976E-2"/>
+                  <c:y val="-3.205920131917761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A28B-8A4E-A8EF-B1F98D0683E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2160,9 +2435,9 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:round/>
@@ -2345,7 +2620,7 @@
         <c:axId val="1279963440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="99.85"/>
           <c:min val="98.3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2484,10 +2759,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53962621294322122"/>
-          <c:y val="0.65984802431610945"/>
-          <c:w val="0.45359481539338414"/>
-          <c:h val="0.25190149103702464"/>
+          <c:x val="0.51102925137038835"/>
+          <c:y val="0.60843626978182996"/>
+          <c:w val="0.47288495774489314"/>
+          <c:h val="0.31505250515958977"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3688,14 +3963,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>192314</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>412749</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4022,10 +4297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
-  <dimension ref="D1:BA82"/>
+  <dimension ref="D1:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4065,119 +4340,86 @@
   <sheetData>
     <row r="1" spans="4:53" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="11"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="11"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="7"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="7"/>
     </row>
     <row r="3" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="14"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="18" t="s">
+      <c r="Q3" s="8"/>
+      <c r="AL3" s="9"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="14"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="Q4" s="12"/>
-      <c r="Y4" s="18" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="Q4" s="8"/>
+      <c r="Y4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="14"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="14"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AL4" s="9"/>
+      <c r="AO4" s="8"/>
+      <c r="BA4" s="9"/>
     </row>
     <row r="5" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
@@ -4195,45 +4437,21 @@
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="5" t="s">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="14"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="6" t="s">
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="AL5" s="9"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="14"/>
+      <c r="AQ5" s="16"/>
+      <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
@@ -4251,7 +4469,7 @@
       <c r="H6" s="2">
         <v>98.198999999999998</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4267,39 +4485,15 @@
       <c r="V6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="14"/>
-      <c r="AO6" s="12"/>
+      <c r="AL6" s="9"/>
+      <c r="AO6" s="8"/>
       <c r="AP6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="14"/>
+      <c r="BA6" s="9"/>
     </row>
     <row r="7" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
@@ -4317,7 +4511,7 @@
       <c r="H7" s="2">
         <v>99.674000000000007</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4333,39 +4527,15 @@
       <c r="V7" s="2">
         <v>99.15</v>
       </c>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="14"/>
-      <c r="AO7" s="12"/>
+      <c r="AL7" s="9"/>
+      <c r="AO7" s="8"/>
       <c r="AP7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ7" s="2">
         <v>5.2694999999999999</v>
       </c>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="14"/>
+      <c r="BA7" s="9"/>
     </row>
     <row r="8" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
@@ -4383,7 +4553,7 @@
       <c r="H8" s="2">
         <v>96.501000000000005</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4399,42 +4569,18 @@
       <c r="V8" s="2">
         <v>100</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="14"/>
-      <c r="AO8" s="12"/>
+      <c r="AL8" s="9"/>
+      <c r="AO8" s="8"/>
       <c r="AP8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ8" s="2">
         <v>82.537800000000004</v>
       </c>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="14"/>
+      <c r="BA8" s="9"/>
     </row>
     <row r="9" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4450,64 +4596,20 @@
       <c r="V9" s="2">
         <v>100</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="14"/>
-      <c r="AO9" s="12"/>
+      <c r="AL9" s="9"/>
+      <c r="AO9" s="8"/>
       <c r="AP9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ9" s="2">
         <v>405.30700000000002</v>
       </c>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="14"/>
+      <c r="BA9" s="9"/>
     </row>
     <row r="10" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="14"/>
-      <c r="AO10" s="12"/>
+      <c r="Q10" s="8"/>
+      <c r="AL10" s="9"/>
+      <c r="AO10" s="8"/>
       <c r="AP10" s="4" t="s">
         <v>23</v>
       </c>
@@ -4515,60 +4617,20 @@
         <f>AVERAGE(AQ7:AQ9)</f>
         <v>164.37143333333333</v>
       </c>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="14"/>
+      <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="14"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="Q11" s="8"/>
+      <c r="AL11" s="9"/>
+      <c r="AO11" s="8"/>
+      <c r="BA11" s="9"/>
     </row>
     <row r="12" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
@@ -4586,43 +4648,17 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="6" t="s">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="14"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="14"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="AL12" s="9"/>
+      <c r="AO12" s="8"/>
+      <c r="BA12" s="9"/>
     </row>
     <row r="13" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D13" s="4" t="s">
@@ -4640,7 +4676,7 @@
       <c r="H13" s="2">
         <v>95.421999999999997</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="3" t="s">
         <v>5</v>
       </c>
@@ -4656,37 +4692,13 @@
       <c r="V13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="14"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="6" t="s">
+      <c r="AL13" s="9"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="14"/>
+      <c r="AQ13" s="16"/>
+      <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
@@ -4704,7 +4716,7 @@
       <c r="H14" s="2">
         <v>96.742999999999995</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="4" t="s">
         <v>1</v>
       </c>
@@ -4720,39 +4732,15 @@
       <c r="V14" s="2">
         <v>95.677999999999997</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="14"/>
-      <c r="AO14" s="12"/>
+      <c r="AL14" s="9"/>
+      <c r="AO14" s="8"/>
       <c r="AP14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="14"/>
+      <c r="BA14" s="9"/>
     </row>
     <row r="15" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D15" s="4" t="s">
@@ -4770,7 +4758,7 @@
       <c r="H15" s="2">
         <v>97.253</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="4" t="s">
         <v>19</v>
       </c>
@@ -4786,42 +4774,18 @@
       <c r="V15" s="2">
         <v>97.111000000000004</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="14"/>
-      <c r="AO15" s="12"/>
+      <c r="AL15" s="9"/>
+      <c r="AO15" s="8"/>
       <c r="AP15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ15" s="2">
         <v>2.4952999999999999</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="14"/>
+      <c r="BA15" s="9"/>
     </row>
     <row r="16" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="4" t="s">
         <v>3</v>
       </c>
@@ -4837,112 +4801,39 @@
       <c r="V16" s="2">
         <v>97.634</v>
       </c>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="14"/>
-      <c r="AO16" s="12"/>
+      <c r="AL16" s="9"/>
+      <c r="AO16" s="8"/>
       <c r="AP16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ16" s="2">
         <v>6.4211999999999998</v>
       </c>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="14"/>
+      <c r="BA16" s="9"/>
     </row>
     <row r="17" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="14"/>
-      <c r="AO17" s="12"/>
+      <c r="Q17" s="8"/>
+      <c r="AL17" s="9"/>
+      <c r="AO17" s="8"/>
       <c r="AP17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ17" s="2">
         <v>28.209599999999998</v>
       </c>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="14"/>
+      <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="14"/>
-      <c r="AO18" s="12"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="Q18" s="8"/>
+      <c r="AL18" s="9"/>
+      <c r="AO18" s="8"/>
       <c r="AP18" s="4" t="s">
         <v>23</v>
       </c>
@@ -4950,16 +4841,7 @@
         <f>AVERAGE(AQ15:AQ17)</f>
         <v>12.375366666666665</v>
       </c>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="14"/>
+      <c r="BA18" s="9"/>
     </row>
     <row r="19" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
@@ -4977,43 +4859,17 @@
       <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="6" t="s">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="14"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="14"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="16"/>
+      <c r="AL19" s="9"/>
+      <c r="AO19" s="8"/>
+      <c r="BA19" s="9"/>
     </row>
     <row r="20" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
@@ -5031,7 +4887,7 @@
       <c r="H20" s="2">
         <v>90.260999999999996</v>
       </c>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="3" t="s">
         <v>5</v>
       </c>
@@ -5047,35 +4903,9 @@
       <c r="V20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="14"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="14"/>
+      <c r="AL20" s="9"/>
+      <c r="AO20" s="8"/>
+      <c r="BA20" s="9"/>
     </row>
     <row r="21" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D21" s="4" t="s">
@@ -5093,7 +4923,7 @@
       <c r="H21" s="2">
         <v>95.031000000000006</v>
       </c>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="4" t="s">
         <v>1</v>
       </c>
@@ -5109,37 +4939,13 @@
       <c r="V21" s="2">
         <v>96.814999999999998</v>
       </c>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="14"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="6" t="s">
+      <c r="AL21" s="9"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="14"/>
+      <c r="AQ21" s="16"/>
+      <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D22" s="4" t="s">
@@ -5157,7 +4963,7 @@
       <c r="H22" s="2">
         <v>94.888000000000005</v>
       </c>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
@@ -5173,42 +4979,18 @@
       <c r="V22" s="2">
         <v>100</v>
       </c>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="14"/>
-      <c r="AO22" s="12"/>
+      <c r="AL22" s="9"/>
+      <c r="AO22" s="8"/>
       <c r="AP22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="14"/>
+      <c r="BA22" s="9"/>
     </row>
     <row r="23" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="8"/>
       <c r="R23" s="4" t="s">
         <v>3</v>
       </c>
@@ -5224,135 +5006,53 @@
       <c r="V23" s="2">
         <v>100</v>
       </c>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="14"/>
-      <c r="AO23" s="12"/>
+      <c r="AL23" s="9"/>
+      <c r="AO23" s="8"/>
       <c r="AP23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ23" s="2">
         <v>7.3962000000000003</v>
       </c>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="14"/>
+      <c r="BA23" s="9"/>
     </row>
     <row r="24" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="14"/>
-      <c r="AO24" s="12"/>
+      <c r="Q24" s="8"/>
+      <c r="AL24" s="9"/>
+      <c r="AO24" s="8"/>
       <c r="AP24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ24" s="2">
         <v>51.4114</v>
       </c>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="14"/>
+      <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="6" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="J25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="14"/>
-      <c r="AO25" s="12"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="Q25" s="8"/>
+      <c r="AL25" s="9"/>
+      <c r="AO25" s="8"/>
       <c r="AP25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ25" s="2">
         <v>256.59190000000001</v>
       </c>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="14"/>
+      <c r="BA25" s="9"/>
     </row>
     <row r="26" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
@@ -5385,33 +5085,23 @@
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="6" t="s">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="6" t="s">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="16"/>
+      <c r="X26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="14"/>
-      <c r="AO26" s="12"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="16"/>
+      <c r="AL26" s="9"/>
+      <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
         <v>23</v>
       </c>
@@ -5419,16 +5109,7 @@
         <f>AVERAGE(AQ23:AQ25)</f>
         <v>105.13316666666667</v>
       </c>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="14"/>
+      <c r="BA26" s="9"/>
     </row>
     <row r="27" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D27" s="4" t="s">
@@ -5461,7 +5142,7 @@
       <c r="N27" s="2">
         <v>99.435000000000002</v>
       </c>
-      <c r="Q27" s="12"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="3" t="s">
         <v>5</v>
       </c>
@@ -5477,7 +5158,6 @@
       <c r="V27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W27" s="13"/>
       <c r="X27" s="3" t="s">
         <v>5</v>
       </c>
@@ -5493,29 +5173,9 @@
       <c r="AB27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="14"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="14"/>
+      <c r="AL27" s="9"/>
+      <c r="AO27" s="8"/>
+      <c r="BA27" s="9"/>
     </row>
     <row r="28" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D28" s="4" t="s">
@@ -5548,7 +5208,7 @@
       <c r="N28" s="2">
         <v>99.983000000000004</v>
       </c>
-      <c r="Q28" s="12"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="4" t="s">
         <v>1</v>
       </c>
@@ -5564,7 +5224,6 @@
       <c r="V28" s="2">
         <v>99.188000000000002</v>
       </c>
-      <c r="W28" s="13"/>
       <c r="X28" s="4" t="s">
         <v>1</v>
       </c>
@@ -5580,29 +5239,9 @@
       <c r="AB28" s="2">
         <v>99.465999999999994</v>
       </c>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="14"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="14"/>
+      <c r="AL28" s="9"/>
+      <c r="AO28" s="8"/>
+      <c r="BA28" s="9"/>
     </row>
     <row r="29" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D29" s="4" t="s">
@@ -5635,7 +5274,7 @@
       <c r="N29" s="2">
         <v>99.974999999999994</v>
       </c>
-      <c r="Q29" s="12"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="4" t="s">
         <v>19</v>
       </c>
@@ -5645,13 +5284,12 @@
       <c r="T29" s="2">
         <v>99.754000000000005</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="1">
         <v>8</v>
       </c>
       <c r="V29" s="2">
         <v>99.997</v>
       </c>
-      <c r="W29" s="13"/>
       <c r="X29" s="4" t="s">
         <v>19</v>
       </c>
@@ -5667,36 +5305,20 @@
       <c r="AB29" s="2">
         <v>100</v>
       </c>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="14"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="5" t="s">
+      <c r="AL29" s="9"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="5" t="s">
+      <c r="AQ29" s="17"/>
+      <c r="AS29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="14"/>
+      <c r="AT29" s="17"/>
+      <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q30" s="12"/>
+      <c r="Q30" s="8"/>
       <c r="R30" s="4" t="s">
         <v>3</v>
       </c>
@@ -5712,7 +5334,6 @@
       <c r="V30" s="2">
         <v>100</v>
       </c>
-      <c r="W30" s="13"/>
       <c r="X30" s="4" t="s">
         <v>3</v>
       </c>
@@ -5728,133 +5349,63 @@
       <c r="AB30" s="2">
         <v>100</v>
       </c>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="14"/>
-      <c r="AO30" s="12"/>
+      <c r="AL30" s="9"/>
+      <c r="AO30" s="8"/>
       <c r="AP30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR30" s="13"/>
       <c r="AS30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AT30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="14"/>
+      <c r="BA30" s="9"/>
     </row>
     <row r="31" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="14"/>
-      <c r="AO31" s="12"/>
+      <c r="Q31" s="8"/>
+      <c r="AL31" s="9"/>
+      <c r="AO31" s="8"/>
       <c r="AP31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ31" s="2"/>
-      <c r="AR31" s="13"/>
       <c r="AS31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AT31" s="2"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="14"/>
+      <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="J32" s="6" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="J32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="8"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="14"/>
-      <c r="AO32" s="12"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
+      <c r="Q32" s="8"/>
+      <c r="AL32" s="9"/>
+      <c r="AO32" s="8"/>
       <c r="AP32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ32" s="2"/>
-      <c r="AR32" s="13"/>
       <c r="AS32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AT32" s="2"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="14"/>
+      <c r="BA32" s="9"/>
     </row>
     <row r="33" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
@@ -5887,49 +5438,32 @@
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="6" t="s">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="6" t="s">
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="16"/>
+      <c r="X33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="14"/>
-      <c r="AO33" s="12"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="16"/>
+      <c r="AL33" s="9"/>
+      <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ33" s="2"/>
-      <c r="AR33" s="13"/>
       <c r="AS33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="13"/>
-      <c r="AV33" s="13"/>
-      <c r="AW33" s="13"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="13"/>
-      <c r="AZ33" s="13"/>
-      <c r="BA33" s="14"/>
+      <c r="BA33" s="9"/>
     </row>
     <row r="34" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D34" s="4" t="s">
@@ -5962,7 +5496,7 @@
       <c r="N34" s="2">
         <v>99.738</v>
       </c>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="8"/>
       <c r="R34" s="3" t="s">
         <v>5</v>
       </c>
@@ -5978,7 +5512,6 @@
       <c r="V34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W34" s="13"/>
       <c r="X34" s="3" t="s">
         <v>5</v>
       </c>
@@ -5994,17 +5527,8 @@
       <c r="AB34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="14"/>
-      <c r="AO34" s="12"/>
+      <c r="AL34" s="9"/>
+      <c r="AO34" s="8"/>
       <c r="AP34" s="4" t="s">
         <v>23</v>
       </c>
@@ -6012,7 +5536,6 @@
         <f>AVERAGE(AQ31:AQ33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR34" s="13"/>
       <c r="AS34" s="4" t="s">
         <v>23</v>
       </c>
@@ -6020,13 +5543,7 @@
         <f>AVERAGE(AT31:AT33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="13"/>
-      <c r="BA34" s="14"/>
+      <c r="BA34" s="9"/>
     </row>
     <row r="35" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D35" s="4" t="s">
@@ -6059,7 +5576,7 @@
       <c r="N35" s="2">
         <v>99.971999999999994</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="8"/>
       <c r="R35" s="4" t="s">
         <v>1</v>
       </c>
@@ -6069,13 +5586,12 @@
       <c r="T35" s="2">
         <v>99.385999999999996</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="1">
         <v>10</v>
       </c>
       <c r="V35" s="2">
         <v>99.701999999999998</v>
       </c>
-      <c r="W35" s="13"/>
       <c r="X35" s="4" t="s">
         <v>1</v>
       </c>
@@ -6091,29 +5607,9 @@
       <c r="AB35" s="2">
         <v>99.763999999999996</v>
       </c>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="14"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="14"/>
+      <c r="AL35" s="9"/>
+      <c r="AO35" s="8"/>
+      <c r="BA35" s="9"/>
     </row>
     <row r="36" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D36" s="4" t="s">
@@ -6146,7 +5642,7 @@
       <c r="N36" s="2">
         <v>99.972999999999999</v>
       </c>
-      <c r="Q36" s="12"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6162,7 +5658,6 @@
       <c r="V36" s="2">
         <v>100</v>
       </c>
-      <c r="W36" s="13"/>
       <c r="X36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6178,32 +5673,12 @@
       <c r="AB36" s="2">
         <v>100</v>
       </c>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="14"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="13"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="13"/>
-      <c r="AS36" s="13"/>
-      <c r="AT36" s="13"/>
-      <c r="AU36" s="13"/>
-      <c r="AV36" s="13"/>
-      <c r="AW36" s="13"/>
-      <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="13"/>
-      <c r="BA36" s="14"/>
+      <c r="AL36" s="9"/>
+      <c r="AO36" s="8"/>
+      <c r="BA36" s="9"/>
     </row>
     <row r="37" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q37" s="12"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="4" t="s">
         <v>3</v>
       </c>
@@ -6219,7 +5694,6 @@
       <c r="V37" s="2">
         <v>100</v>
       </c>
-      <c r="W37" s="13"/>
       <c r="X37" s="4" t="s">
         <v>3</v>
       </c>
@@ -6235,128 +5709,59 @@
       <c r="AB37" s="2">
         <v>100</v>
       </c>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="14"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="5" t="s">
+      <c r="AL37" s="9"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="5" t="s">
+      <c r="AQ37" s="17"/>
+      <c r="AS37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="5"/>
-      <c r="AU37" s="13"/>
-      <c r="AV37" s="13"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
-      <c r="AZ37" s="13"/>
-      <c r="BA37" s="14"/>
+      <c r="AT37" s="17"/>
+      <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13" t="s">
+      <c r="Q38" s="8"/>
+      <c r="AA38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="14"/>
-      <c r="AO38" s="12"/>
+      <c r="AL38" s="9"/>
+      <c r="AO38" s="8"/>
       <c r="AP38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR38" s="13"/>
       <c r="AS38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AT38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="14"/>
+      <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="14"/>
-      <c r="AO39" s="12"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="Q39" s="8"/>
+      <c r="AL39" s="9"/>
+      <c r="AO39" s="8"/>
       <c r="AP39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ39" s="2"/>
-      <c r="AR39" s="13"/>
       <c r="AS39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AT39" s="2"/>
-      <c r="AU39" s="13"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="14"/>
+      <c r="BA39" s="9"/>
     </row>
     <row r="40" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
@@ -6374,47 +5779,25 @@
       <c r="H40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="6" t="s">
+      <c r="Q40" s="8"/>
+      <c r="R40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="14"/>
-      <c r="AO40" s="12"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="16"/>
+      <c r="AL40" s="9"/>
+      <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ40" s="2"/>
-      <c r="AR40" s="13"/>
       <c r="AS40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AT40" s="2"/>
-      <c r="AU40" s="13"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="13"/>
-      <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="14"/>
+      <c r="BA40" s="9"/>
     </row>
     <row r="41" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D41" s="4" t="s">
@@ -6432,7 +5815,7 @@
       <c r="H41" s="2">
         <v>98.775999999999996</v>
       </c>
-      <c r="Q41" s="12"/>
+      <c r="Q41" s="8"/>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
@@ -6448,39 +5831,17 @@
       <c r="V41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="14"/>
-      <c r="AO41" s="12"/>
+      <c r="AL41" s="9"/>
+      <c r="AO41" s="8"/>
       <c r="AP41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ41" s="2"/>
-      <c r="AR41" s="13"/>
       <c r="AS41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AT41" s="2"/>
-      <c r="AU41" s="13"/>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="13"/>
-      <c r="AX41" s="13"/>
-      <c r="AY41" s="13"/>
-      <c r="AZ41" s="13"/>
-      <c r="BA41" s="14"/>
+      <c r="BA41" s="9"/>
     </row>
     <row r="42" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D42" s="4" t="s">
@@ -6498,7 +5859,7 @@
       <c r="H42" s="2">
         <v>99.078999999999994</v>
       </c>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="8"/>
       <c r="R42" s="4" t="s">
         <v>1</v>
       </c>
@@ -6514,23 +5875,8 @@
       <c r="V42" s="2">
         <v>98.804000000000002</v>
       </c>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="14"/>
-      <c r="AO42" s="12"/>
+      <c r="AL42" s="9"/>
+      <c r="AO42" s="8"/>
       <c r="AP42" s="4" t="s">
         <v>23</v>
       </c>
@@ -6538,7 +5884,6 @@
         <f>AVERAGE(AQ39:AQ41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR42" s="13"/>
       <c r="AS42" s="4" t="s">
         <v>23</v>
       </c>
@@ -6546,13 +5891,7 @@
         <f>AVERAGE(AT39:AT41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU42" s="13"/>
-      <c r="AV42" s="13"/>
-      <c r="AW42" s="13"/>
-      <c r="AX42" s="13"/>
-      <c r="AY42" s="13"/>
-      <c r="AZ42" s="13"/>
-      <c r="BA42" s="14"/>
+      <c r="BA42" s="9"/>
     </row>
     <row r="43" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D43" s="4" t="s">
@@ -6570,7 +5909,7 @@
       <c r="H43" s="2">
         <v>99.397000000000006</v>
       </c>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="8"/>
       <c r="R43" s="4" t="s">
         <v>19</v>
       </c>
@@ -6586,38 +5925,12 @@
       <c r="V43" s="2">
         <v>99.106999999999999</v>
       </c>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="14"/>
-      <c r="AO43" s="12"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
-      <c r="AR43" s="13"/>
-      <c r="AS43" s="13"/>
-      <c r="AT43" s="13"/>
-      <c r="AU43" s="13"/>
-      <c r="AV43" s="13"/>
-      <c r="AW43" s="13"/>
-      <c r="AX43" s="13"/>
-      <c r="AY43" s="13"/>
-      <c r="AZ43" s="13"/>
-      <c r="BA43" s="14"/>
+      <c r="AL43" s="9"/>
+      <c r="AO43" s="8"/>
+      <c r="BA43" s="9"/>
     </row>
     <row r="44" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="8"/>
       <c r="R44" s="4" t="s">
         <v>3</v>
       </c>
@@ -6633,263 +5946,72 @@
       <c r="V44" s="2">
         <v>99.447000000000003</v>
       </c>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="14"/>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="13"/>
-      <c r="AQ44" s="13"/>
-      <c r="AR44" s="13"/>
-      <c r="AS44" s="13"/>
-      <c r="AT44" s="13"/>
-      <c r="AU44" s="13"/>
-      <c r="AV44" s="13"/>
-      <c r="AW44" s="13"/>
-      <c r="AX44" s="13"/>
-      <c r="AY44" s="13"/>
-      <c r="AZ44" s="13"/>
-      <c r="BA44" s="14"/>
+      <c r="AL44" s="9"/>
+      <c r="AO44" s="8"/>
+      <c r="BA44" s="9"/>
     </row>
     <row r="45" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="14"/>
-      <c r="AO45" s="12"/>
-      <c r="AP45" s="5" t="s">
+      <c r="Q45" s="8"/>
+      <c r="AL45" s="9"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
-      <c r="AU45" s="13"/>
-      <c r="AV45" s="13"/>
-      <c r="AW45" s="13"/>
-      <c r="AX45" s="13"/>
-      <c r="AY45" s="13"/>
-      <c r="AZ45" s="13"/>
-      <c r="BA45" s="14"/>
+      <c r="AQ45" s="17"/>
+      <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="14"/>
-      <c r="AO46" s="12"/>
+      <c r="Q46" s="8"/>
+      <c r="AL46" s="9"/>
+      <c r="AO46" s="8"/>
       <c r="AP46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AQ46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13"/>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="14"/>
+      <c r="BA46" s="9"/>
     </row>
     <row r="47" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="14"/>
-      <c r="AO47" s="12"/>
+      <c r="Q47" s="8"/>
+      <c r="AL47" s="9"/>
+      <c r="AO47" s="8"/>
       <c r="AP47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AQ47" s="2">
         <v>8.3231999999999999</v>
       </c>
-      <c r="AR47" s="13"/>
-      <c r="AS47" s="13"/>
-      <c r="AT47" s="13"/>
-      <c r="AU47" s="13"/>
-      <c r="AV47" s="13"/>
-      <c r="AW47" s="13"/>
-      <c r="AX47" s="13"/>
-      <c r="AY47" s="13"/>
-      <c r="AZ47" s="13"/>
-      <c r="BA47" s="14"/>
+      <c r="BA47" s="9"/>
     </row>
     <row r="48" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="14"/>
-      <c r="AO48" s="12"/>
+      <c r="Q48" s="8"/>
+      <c r="AL48" s="9"/>
+      <c r="AO48" s="8"/>
       <c r="AP48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ48" s="2">
         <v>33.345100000000002</v>
       </c>
-      <c r="AR48" s="13"/>
-      <c r="AS48" s="13"/>
-      <c r="AT48" s="13"/>
-      <c r="AU48" s="13"/>
-      <c r="AV48" s="13"/>
-      <c r="AW48" s="13"/>
-      <c r="AX48" s="13"/>
-      <c r="AY48" s="13"/>
-      <c r="AZ48" s="13"/>
-      <c r="BA48" s="14"/>
+      <c r="BA48" s="9"/>
     </row>
     <row r="49" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="Q49" s="12"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="14"/>
-      <c r="AO49" s="12"/>
+      <c r="Q49" s="8"/>
+      <c r="AL49" s="9"/>
+      <c r="AO49" s="8"/>
       <c r="AP49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AQ49" s="2">
         <v>101.1771</v>
       </c>
-      <c r="AR49" s="13"/>
-      <c r="AS49" s="13"/>
-      <c r="AT49" s="13"/>
-      <c r="AU49" s="13"/>
-      <c r="AV49" s="13"/>
-      <c r="AW49" s="13"/>
-      <c r="AX49" s="13"/>
-      <c r="AY49" s="13"/>
-      <c r="AZ49" s="13"/>
-      <c r="BA49" s="14"/>
+      <c r="BA49" s="9"/>
     </row>
     <row r="50" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="Q50" s="12"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="14"/>
-      <c r="AO50" s="12"/>
+      <c r="Q50" s="8"/>
+      <c r="AL50" s="9"/>
+      <c r="AO50" s="8"/>
       <c r="AP50" s="4" t="s">
         <v>23</v>
       </c>
@@ -6897,180 +6019,73 @@
         <f>AVERAGE(AQ47:AQ49)</f>
         <v>47.615133333333326</v>
       </c>
-      <c r="AR50" s="13"/>
-      <c r="AS50" s="13"/>
-      <c r="AT50" s="13"/>
-      <c r="AU50" s="13"/>
-      <c r="AV50" s="13"/>
-      <c r="AW50" s="13"/>
-      <c r="AX50" s="13"/>
-      <c r="AY50" s="13"/>
-      <c r="AZ50" s="13"/>
-      <c r="BA50" s="14"/>
+      <c r="BA50" s="9"/>
     </row>
     <row r="51" spans="17:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q51" s="15"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16"/>
-      <c r="AI51" s="16"/>
-      <c r="AJ51" s="16"/>
-      <c r="AK51" s="16"/>
-      <c r="AL51" s="17"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="16"/>
-      <c r="AQ51" s="16"/>
-      <c r="AR51" s="16"/>
-      <c r="AS51" s="16"/>
-      <c r="AT51" s="16"/>
-      <c r="AU51" s="16"/>
-      <c r="AV51" s="16"/>
-      <c r="AW51" s="16"/>
-      <c r="AX51" s="16"/>
-      <c r="AY51" s="16"/>
-      <c r="AZ51" s="16"/>
-      <c r="BA51" s="17"/>
-    </row>
-    <row r="52" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP52" s="13"/>
-    </row>
-    <row r="53" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP53" s="13"/>
-    </row>
-    <row r="54" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP54" s="13"/>
-    </row>
-    <row r="55" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP55" s="13"/>
-    </row>
-    <row r="56" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP56" s="13"/>
-    </row>
-    <row r="57" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP57" s="13"/>
-    </row>
-    <row r="58" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP58" s="13"/>
-    </row>
-    <row r="59" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP59" s="13"/>
-    </row>
-    <row r="60" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP60" s="13"/>
-    </row>
-    <row r="61" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP61" s="13"/>
-    </row>
-    <row r="62" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP62" s="13"/>
-    </row>
-    <row r="63" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP63" s="13"/>
-    </row>
-    <row r="64" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="AP64" s="13"/>
-    </row>
-    <row r="65" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP65" s="13"/>
-    </row>
-    <row r="66" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP66" s="13"/>
-    </row>
-    <row r="67" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP67" s="13"/>
-    </row>
-    <row r="68" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP68" s="13"/>
-    </row>
-    <row r="69" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP69" s="13"/>
-    </row>
-    <row r="70" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP70" s="13"/>
-    </row>
-    <row r="71" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AP71" s="13"/>
-    </row>
-    <row r="78" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AQ78" s="13"/>
-      <c r="AR78" s="13"/>
-      <c r="AS78" s="13"/>
-      <c r="AT78" s="13"/>
-      <c r="AU78" s="13"/>
-      <c r="AV78" s="13"/>
-      <c r="AW78" s="13"/>
-      <c r="AX78" s="13"/>
-      <c r="AY78" s="13"/>
-      <c r="AZ78" s="13"/>
-      <c r="BA78" s="13"/>
-    </row>
-    <row r="79" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AQ79" s="13"/>
-      <c r="AR79" s="13"/>
-      <c r="AS79" s="13"/>
-      <c r="AT79" s="13"/>
-      <c r="AU79" s="13"/>
-      <c r="AV79" s="13"/>
-      <c r="AW79" s="13"/>
-      <c r="AX79" s="13"/>
-      <c r="AY79" s="13"/>
-      <c r="AZ79" s="13"/>
-      <c r="BA79" s="13"/>
-    </row>
-    <row r="80" spans="42:53" x14ac:dyDescent="0.2">
-      <c r="AR80" s="13"/>
-      <c r="AS80" s="13"/>
-    </row>
-    <row r="81" spans="44:45" x14ac:dyDescent="0.2">
-      <c r="AR81" s="13"/>
-      <c r="AS81" s="13"/>
-    </row>
-    <row r="82" spans="44:45" x14ac:dyDescent="0.2">
-      <c r="AR82" s="13"/>
-      <c r="AS82" s="13"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="12"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="11"/>
+      <c r="AZ51" s="11"/>
+      <c r="BA51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="X33:AB33"/>
+    <mergeCell ref="R33:V33"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP13:AQ13"/>
     <mergeCell ref="Y4:AI4"/>
     <mergeCell ref="X26:AB26"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="X33:AB33"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="AS37:AT37"/>
-    <mergeCell ref="AS29:AT29"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="J25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,13 +8,63 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6997A-B935-C448-9290-88FA8D0BA6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EAD1C-DE6E-FC42-B332-20329D6B546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AP$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AP$21</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AQ$47</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AQ$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AS$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AS$37</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AT$31</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AT$39</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AP$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AP$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AP$29</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AP$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AP$29</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AP$45</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AP$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AQ$15</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AQ$23</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$AQ$31</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$AQ$39</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$AQ$47</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$AQ$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$AS$29</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$AS$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AP$37</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$AT$31</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$AT$39</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$AP$13</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AP$21</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AP$29</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AP$37</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AP$45</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AP$5</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AQ$15</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AQ$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AP$45</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AQ$31</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AQ$39</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AQ$47</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AQ$7</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AS$29</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$AS$37</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$AT$31</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$AT$39</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AP$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AQ$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AQ$23</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AQ$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AQ$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -340,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +400,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2835,6 +2885,3714 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time Per Model For 32x32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.2694999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.4952999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-B3C1-2E4E-95F9-8A1319AC1575}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.3962000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14611175328813267"/>
+                      <c:h val="0.11883675527633077"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B3C1-2E4E-95F9-8A1319AC1575}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2395215756897515E-3"/>
+                  <c:y val="3.579961663503279E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12338324807667124"/>
+                      <c:h val="0.15647980756582036"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B3C1-2E4E-95F9-8A1319AC1575}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.3183999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12789678059983742"/>
+                      <c:h val="0.12068028489278936"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-B3C1-2E4E-95F9-8A1319AC1575}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.3489000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1503518730670792"/>
+                      <c:h val="0.13022682427226429"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-B3C1-2E4E-95F9-8A1319AC1575}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.290699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN  (Complex Model, 11 Epochs, 100 Batch Size, &lt;size&gt; Filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13395211159791967"/>
+                      <c:h val="0.18000000000000002"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-B3C1-2E4E-95F9-8A1319AC1575}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.3231999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B3C1-2E4E-95F9-8A1319AC1575}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1774441920"/>
+        <c:axId val="1775134880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1774441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Model Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48480069922856461"/>
+              <c:y val="0.96221828259233322"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1775134880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775134880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774441920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time Per Model For 64x64</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82.537800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.4211999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.4114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13261343898313172"/>
+                      <c:h val="0.11406938196142981"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D5C6-1143-BFFF-966FD2FF44FC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.0872999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13861268978535438"/>
+                      <c:h val="0.12816215941298587"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D5C6-1143-BFFF-966FD2FF44FC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.5046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1416347533292299"/>
+                      <c:h val="0.11172058571950377"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D5C6-1143-BFFF-966FD2FF44FC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.226900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.15213344223311953"/>
+                      <c:h val="0.13285975189683788"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D5C6-1143-BFFF-966FD2FF44FC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.351900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN  (Complex Model, 11 Epochs, 100 Batch Size, &lt;size&gt; Filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14770155475072166"/>
+                      <c:h val="0.14896065766294775"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D5C6-1143-BFFF-966FD2FF44FC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33.345100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D5C6-1143-BFFF-966FD2FF44FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1774441920"/>
+        <c:axId val="1775134880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1774441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Model Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48480069922856461"/>
+              <c:y val="0.96221828259233322"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1775134880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775134880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774441920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time Per Model For 64x64</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>405.30700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.209599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256.59190000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13861268978535438"/>
+                      <c:h val="9.7627808267947716E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.343299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (1 Layer, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13111362628257606"/>
+                      <c:h val="0.10702299323565174"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.034800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 32 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12663662632367326"/>
+                      <c:h val="0.11406938196142981"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.549099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN (2 Layers, 64 Filter, 11 Epochs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13113606442534023"/>
+                      <c:h val="0.13755734438068992"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64.385800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN  (Complex Model, 11 Epochs, 100 Batch Size, &lt;size&gt; Filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13420324044572068"/>
+                      <c:h val="0.14426306517909568"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4FB5-1D4A-994B-079B8BB184E8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>101.1771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4FB5-1D4A-994B-079B8BB184E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1774441920"/>
+        <c:axId val="1775134880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1774441920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Model Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48480069922856461"/>
+              <c:y val="0.96221828259233322"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1775134880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775134880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774441920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2915,6 +6673,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3917,6 +7795,1530 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3992,6 +9394,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1422399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D86C50-49A3-7CAE-09F0-B97E7545694F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1460499</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05C7A3D-AC65-6943-B79F-F3D7C9B3C464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6CCF02-A9A9-2A4C-AEBC-F49269E28B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4299,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D1:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="AQ2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BB19" sqref="BB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4330,9 +9844,10 @@
     <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="41" width="10.83203125" style="1"/>
     <col min="42" max="42" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.33203125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="44.5" style="1" customWidth="1"/>
     <col min="44" max="45" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="20.6640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="21.83203125" style="1" customWidth="1"/>
+    <col min="47" max="52" width="20.6640625" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="21.83203125" style="1" customWidth="1"/>
     <col min="55" max="16384" width="10.83203125" style="1"/>
@@ -4380,43 +9895,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="13" t="s">
+      <c r="AP3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -4438,19 +9953,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="14" t="s">
+      <c r="AP5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="16"/>
+      <c r="AQ5" s="15"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -4620,13 +10135,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -4649,13 +10164,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="16"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -4694,10 +10209,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="14" t="s">
+      <c r="AP13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="16"/>
+      <c r="AQ13" s="15"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -4824,13 +10339,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -4860,13 +10375,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="15"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -4941,10 +10456,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="14" t="s">
+      <c r="AP21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="16"/>
+      <c r="AQ21" s="15"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -5029,20 +10544,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="J25" s="14" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="J25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -5086,20 +10601,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="16"/>
-      <c r="X26" s="14" t="s">
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="15"/>
+      <c r="X26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="16"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -5307,14 +10822,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="17" t="s">
+      <c r="AP29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="17"/>
-      <c r="AS29" s="17" t="s">
+      <c r="AQ29" s="16"/>
+      <c r="AS29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="17"/>
+      <c r="AT29" s="16"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -5372,39 +10887,47 @@
       <c r="AP31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AQ31" s="2"/>
+      <c r="AQ31" s="2">
+        <v>4.5206</v>
+      </c>
       <c r="AS31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT31" s="2"/>
+      <c r="AT31" s="2">
+        <v>6.3183999999999996</v>
+      </c>
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="J32" s="14" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="J32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ32" s="2"/>
+      <c r="AQ32" s="2">
+        <v>7.0872999999999999</v>
+      </c>
       <c r="AS32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AT32" s="2"/>
+      <c r="AT32" s="2">
+        <v>15.5046</v>
+      </c>
       <c r="BA32" s="9"/>
     </row>
     <row r="33" spans="4:53" x14ac:dyDescent="0.2">
@@ -5439,30 +10962,34 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
-      <c r="X33" s="14" t="s">
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="15"/>
+      <c r="X33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="16"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AQ33" s="2"/>
+      <c r="AQ33" s="2">
+        <v>18.343299999999999</v>
+      </c>
       <c r="AS33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AT33" s="2"/>
+      <c r="AT33" s="2">
+        <v>29.034800000000001</v>
+      </c>
       <c r="BA33" s="9"/>
     </row>
     <row r="34" spans="4:53" x14ac:dyDescent="0.2">
@@ -5532,16 +11059,16 @@
       <c r="AP34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ34" s="2" t="e">
+      <c r="AQ34" s="2">
         <f>AVERAGE(AQ31:AQ33)</f>
-        <v>#DIV/0!</v>
+        <v>9.9837333333333333</v>
       </c>
       <c r="AS34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AT34" s="2" t="e">
+      <c r="AT34" s="2">
         <f>AVERAGE(AT31:AT33)</f>
-        <v>#DIV/0!</v>
+        <v>16.9526</v>
       </c>
       <c r="BA34" s="9"/>
     </row>
@@ -5711,14 +11238,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="17" t="s">
+      <c r="AP37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="17"/>
-      <c r="AS37" s="17" t="s">
+      <c r="AQ37" s="16"/>
+      <c r="AS37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="17"/>
+      <c r="AT37" s="16"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -5743,24 +11270,28 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
       <c r="AP39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AQ39" s="2"/>
+      <c r="AQ39" s="2">
+        <v>6.3489000000000004</v>
+      </c>
       <c r="AS39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT39" s="2"/>
+      <c r="AT39" s="2">
+        <v>10.290699999999999</v>
+      </c>
       <c r="BA39" s="9"/>
     </row>
     <row r="40" spans="4:53" x14ac:dyDescent="0.2">
@@ -5780,23 +11311,27 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="16"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="15"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ40" s="2"/>
+      <c r="AQ40" s="2">
+        <v>10.226900000000001</v>
+      </c>
       <c r="AS40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AT40" s="2"/>
+      <c r="AT40" s="2">
+        <v>18.351900000000001</v>
+      </c>
       <c r="BA40" s="9"/>
     </row>
     <row r="41" spans="4:53" x14ac:dyDescent="0.2">
@@ -5836,11 +11371,15 @@
       <c r="AP41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AQ41" s="2"/>
+      <c r="AQ41" s="2">
+        <v>31.549099999999999</v>
+      </c>
       <c r="AS41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AT41" s="2"/>
+      <c r="AT41" s="2">
+        <v>64.385800000000003</v>
+      </c>
       <c r="BA41" s="9"/>
     </row>
     <row r="42" spans="4:53" x14ac:dyDescent="0.2">
@@ -5880,16 +11419,16 @@
       <c r="AP42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ42" s="2" t="e">
+      <c r="AQ42" s="2">
         <f>AVERAGE(AQ39:AQ41)</f>
-        <v>#DIV/0!</v>
+        <v>16.041633333333333</v>
       </c>
       <c r="AS42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AT42" s="2" t="e">
+      <c r="AT42" s="2">
         <f>AVERAGE(AT39:AT41)</f>
-        <v>#DIV/0!</v>
+        <v>31.009466666666668</v>
       </c>
       <c r="BA42" s="9"/>
     </row>
@@ -5954,10 +11493,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="17" t="s">
+      <c r="AP45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="17"/>
+      <c r="AQ45" s="16"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -6060,18 +11599,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -6086,6 +11613,18 @@
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -1,70 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i560646/Desktop/Eden/ML Final Project/Image_Based_Malware_Classification/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EAD1C-DE6E-FC42-B332-20329D6B546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74068B9D-5783-4B04-9E90-95F19B85CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AP$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AP$21</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AQ$47</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AQ$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AS$29</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AS$37</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AT$31</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AT$39</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AP$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AP$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AP$29</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AP$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AP$29</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AP$45</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AP$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AQ$15</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AQ$23</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$AQ$31</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$AQ$39</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$AQ$47</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$AQ$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$AS$29</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$AS$37</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AP$37</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$AT$31</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$AT$39</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$AP$13</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AP$21</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AP$29</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AP$37</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AP$45</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AP$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AQ$15</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AQ$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AP$45</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AQ$31</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AQ$39</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AQ$47</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AQ$7</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AS$29</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$AS$37</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$AT$31</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$AT$39</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AP$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AQ$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AQ$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AQ$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AQ$39</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -171,7 +121,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,6 +340,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,12 +353,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -644,7 +594,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -828,7 +778,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1012,7 +962,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1160,7 +1110,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1198,7 +1148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -1306,7 +1256,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1338,7 +1288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -1387,7 +1337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1424,7 +1374,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1506,7 +1456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1657,7 +1607,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1858,7 +1808,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2062,7 +2012,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2263,7 +2213,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2467,7 +2417,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2618,7 +2568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2656,7 +2606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1279963440"/>
@@ -2756,7 +2706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2788,7 +2738,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1280095088"/>
@@ -2837,7 +2787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2874,7 +2824,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2944,7 +2894,7 @@
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3001,7 +2951,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3098,7 +3048,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3214,7 +3164,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3336,7 +3286,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3462,7 +3412,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3582,7 +3532,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3704,7 +3654,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3826,7 +3776,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3949,7 +3899,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4030,7 +3980,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4059,7 +4009,7 @@
                 <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1774441920"/>
@@ -4114,7 +4064,7 @@
           <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4184,7 +4134,7 @@
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4241,7 +4191,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4338,7 +4288,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4435,7 +4385,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4557,7 +4507,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4679,7 +4629,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4801,7 +4751,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4925,7 +4875,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5049,7 +4999,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5174,7 +5124,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5255,7 +5205,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5284,7 +5234,7 @@
                 <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1774441920"/>
@@ -5339,7 +5289,7 @@
           <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5382,7 +5332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Run Time Per Model For 64x64</a:t>
+              <a:t>Run Time Per Model For 128x128</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5409,7 +5359,7 @@
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5484,7 +5434,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5581,7 +5531,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5678,7 +5628,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5800,7 +5750,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5922,7 +5872,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6044,7 +5994,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6168,7 +6118,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6292,7 +6242,7 @@
                     <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IL"/>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6417,7 +6367,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6498,7 +6448,7 @@
                   <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6527,7 +6477,7 @@
                 <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1774441920"/>
@@ -6582,7 +6532,7 @@
           <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9813,47 +9763,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D1:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BB19" sqref="BB19"/>
+    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BD55" sqref="BD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.77734375" style="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.77734375" style="1"/>
     <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.77734375" style="1"/>
     <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="41" width="10.83203125" style="1"/>
+    <col min="29" max="41" width="10.77734375" style="1"/>
     <col min="42" max="42" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="44.5" style="1" customWidth="1"/>
+    <col min="43" max="43" width="44.44140625" style="1" customWidth="1"/>
     <col min="44" max="45" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="21.77734375" style="1" customWidth="1"/>
     <col min="47" max="52" width="20.6640625" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.83203125" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="10.83203125" style="1"/>
+    <col min="54" max="54" width="21.77734375" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:53" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="4:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:53" x14ac:dyDescent="0.2">
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
@@ -9895,43 +9845,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -9953,19 +9903,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="13" t="s">
+      <c r="AP5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="15"/>
+      <c r="AQ5" s="17"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -10135,13 +10085,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -10164,13 +10114,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="17"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -10209,10 +10159,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="13" t="s">
+      <c r="AP13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="15"/>
+      <c r="AQ13" s="17"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -10339,13 +10289,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -10375,13 +10325,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="17"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -10456,10 +10406,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="13" t="s">
+      <c r="AP21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="15"/>
+      <c r="AQ21" s="17"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -10544,20 +10494,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="J25" s="13" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="J25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -10601,20 +10551,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="X26" s="13" t="s">
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="17"/>
+      <c r="X26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="17"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -10822,14 +10772,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="16" t="s">
+      <c r="AP29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="16"/>
-      <c r="AS29" s="16" t="s">
+      <c r="AQ29" s="14"/>
+      <c r="AS29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="16"/>
+      <c r="AT29" s="14"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -10899,20 +10849,20 @@
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="J32" s="13" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="J32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
@@ -10962,20 +10912,20 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="15"/>
-      <c r="X33" s="13" t="s">
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="17"/>
+      <c r="X33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="15"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="17"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
@@ -11238,14 +11188,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="16" t="s">
+      <c r="AP37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="16"/>
-      <c r="AS37" s="16" t="s">
+      <c r="AQ37" s="14"/>
+      <c r="AS37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="16"/>
+      <c r="AT37" s="14"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -11270,13 +11220,13 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
@@ -11311,13 +11261,13 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="15"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="17"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
@@ -11493,10 +11443,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="16" t="s">
+      <c r="AP45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="16"/>
+      <c r="AQ45" s="14"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -11560,7 +11510,7 @@
       </c>
       <c r="BA50" s="9"/>
     </row>
-    <row r="51" spans="17:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -11599,6 +11549,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -11613,18 +11575,6 @@
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74068B9D-5783-4B04-9E90-95F19B85CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF85CE-D7CE-425F-97CB-D03BC8744CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
@@ -340,12 +340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +347,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1210,7 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Success Rate</a:t>
+                  <a:t>Success Rate (%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:ln>
@@ -2668,7 +2668,7 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Success Rate</a:t>
+                  <a:t>Success Rate (%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:ln>
@@ -3953,7 +3953,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Run Time</a:t>
+                  <a:t>Run Time (Minutes)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5178,8 +5178,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Run Time</a:t>
+                  <a:t>Run Time (</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6421,8 +6428,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Run Time</a:t>
+                  <a:t>Run Time (</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9763,8 +9777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D1:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BD55" sqref="BD55"/>
+    <sheetView tabSelected="1" topLeftCell="M8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9845,43 +9859,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="13" t="s">
+      <c r="AP3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -9903,19 +9917,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="15" t="s">
+      <c r="AP5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="17"/>
+      <c r="AQ5" s="15"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -10085,13 +10099,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -10114,13 +10128,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="17"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -10159,10 +10173,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="15" t="s">
+      <c r="AP13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="17"/>
+      <c r="AQ13" s="15"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -10289,13 +10303,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -10325,13 +10339,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="15"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -10406,10 +10420,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="15" t="s">
+      <c r="AP21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="17"/>
+      <c r="AQ21" s="15"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -10494,20 +10508,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="J25" s="15" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="J25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -10551,20 +10565,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="17"/>
-      <c r="X26" s="15" t="s">
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="15"/>
+      <c r="X26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="17"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -10772,14 +10786,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="14" t="s">
+      <c r="AP29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="14"/>
-      <c r="AS29" s="14" t="s">
+      <c r="AQ29" s="16"/>
+      <c r="AS29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="14"/>
+      <c r="AT29" s="16"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -10849,20 +10863,20 @@
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="J32" s="15" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="J32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
@@ -10912,20 +10926,20 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="15" t="s">
+      <c r="R33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="17"/>
-      <c r="X33" s="15" t="s">
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="15"/>
+      <c r="X33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="17"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
@@ -11188,14 +11202,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="14" t="s">
+      <c r="AP37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="14"/>
-      <c r="AS37" s="14" t="s">
+      <c r="AQ37" s="16"/>
+      <c r="AS37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="14"/>
+      <c r="AT37" s="16"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -11220,13 +11234,13 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
@@ -11261,13 +11275,13 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="17"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="15"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
@@ -11443,10 +11457,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="14" t="s">
+      <c r="AP45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="14"/>
+      <c r="AQ45" s="16"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -11549,18 +11563,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -11575,6 +11577,18 @@
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF85CE-D7CE-425F-97CB-D03BC8744CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7883C-5E0D-4478-BE85-766F8B3EF682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
   <si>
     <t>LDA</t>
   </si>
@@ -112,6 +112,27 @@
   <si>
     <t>אחוזי הצלחה</t>
   </si>
+  <si>
+    <t>64X64</t>
+  </si>
+  <si>
+    <t># Of filters</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>2 layers</t>
+  </si>
+  <si>
+    <t>1 layers</t>
+  </si>
+  <si>
+    <t>Our</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -298,11 +319,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +542,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6557,6 +6809,1404 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2 Convolutional Layers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3913947484369481"/>
+          <c:y val="1.358778421142799E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7912927558004628E-2"/>
+          <c:y val="7.6547926491154036E-2"/>
+          <c:w val="0.93746648002118227"/>
+          <c:h val="0.70799822040382232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Research </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$S$70:$T$75</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$70:$U$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B8F-664E-B469-4C0716A42A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$S$70:$T$75</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$70:$Y$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.385999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.528999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.724000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.733999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B8F-664E-B469-4C0716A42A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="899131775"/>
+        <c:axId val="1211754527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="899131775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flters</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-US"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43363932858257803"/>
+              <c:y val="0.91591034195648702"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211754527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211754527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Success Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="899131775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.944663185877504E-2"/>
+          <c:y val="1.4257661863091171E-2"/>
+          <c:w val="0.20252543616937713"/>
+          <c:h val="5.0505388160671232E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1 Convolutional Layers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3913947484369481"/>
+          <c:y val="1.358778421142799E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7912927558004628E-2"/>
+          <c:y val="7.6547926491154036E-2"/>
+          <c:w val="0.93746648002118227"/>
+          <c:h val="0.70799822040382232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Research </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$S$70:$T$75</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$59:$U$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A726-D948-98C1-F530D38F990F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$S$70:$T$75</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32x32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>128x128</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$59:$Y$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.754000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.825999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A726-D948-98C1-F530D38F990F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="899131775"/>
+        <c:axId val="1211754527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="899131775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flters</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-US"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43363932858257803"/>
+              <c:y val="0.91591034195648702"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211754527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211754527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Success Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="899131775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.944663185877504E-2"/>
+          <c:y val="1.4257661863091171E-2"/>
+          <c:w val="0.20252543616937713"/>
+          <c:h val="5.0505388160671232E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6757,6 +8407,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9283,6 +11013,1012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9470,6 +12206,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>191333</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>941916</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32469701-4F64-7415-339D-40AC39B17C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>112683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF94ED38-B4F6-1D4B-BA5F-736F5125EB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9775,10 +12585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
-  <dimension ref="D1:BA51"/>
+  <dimension ref="D1:BA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9859,43 +12669,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -9917,19 +12727,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="13" t="s">
+      <c r="AP5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="15"/>
+      <c r="AQ5" s="31"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -10099,13 +12909,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -10128,13 +12938,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -10173,10 +12983,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="13" t="s">
+      <c r="AP13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="15"/>
+      <c r="AQ13" s="31"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -10303,13 +13113,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -10339,13 +13149,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="31"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -10420,10 +13230,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="13" t="s">
+      <c r="AP21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="15"/>
+      <c r="AQ21" s="31"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -10508,20 +13318,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="J25" s="13" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="J25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -10565,20 +13375,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="X26" s="13" t="s">
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
+      <c r="X26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="31"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -10786,14 +13596,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="16" t="s">
+      <c r="AP29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="16"/>
-      <c r="AS29" s="16" t="s">
+      <c r="AQ29" s="32"/>
+      <c r="AS29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="16"/>
+      <c r="AT29" s="32"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -10863,20 +13673,20 @@
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="J32" s="13" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="J32" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
@@ -10926,20 +13736,20 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="15"/>
-      <c r="X33" s="13" t="s">
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="31"/>
+      <c r="X33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="15"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="31"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
@@ -11202,14 +14012,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="16" t="s">
+      <c r="AP37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="16"/>
-      <c r="AS37" s="16" t="s">
+      <c r="AQ37" s="32"/>
+      <c r="AS37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="16"/>
+      <c r="AT37" s="32"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -11234,13 +14044,13 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
@@ -11275,13 +14085,13 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="15"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="31"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
@@ -11457,10 +14267,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="16" t="s">
+      <c r="AP45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="16"/>
+      <c r="AQ45" s="32"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -11561,8 +14371,355 @@
       <c r="AZ51" s="11"/>
       <c r="BA51" s="12"/>
     </row>
+    <row r="55" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S56" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="25"/>
+    </row>
+    <row r="57" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S57" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="22"/>
+    </row>
+    <row r="58" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V58" s="13"/>
+      <c r="W58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S59" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2">
+        <v>32</v>
+      </c>
+      <c r="U59" s="2">
+        <v>84</v>
+      </c>
+      <c r="V59" s="13"/>
+      <c r="W59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y59" s="15">
+        <v>98.71</v>
+      </c>
+    </row>
+    <row r="60" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S60" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="2">
+        <v>64</v>
+      </c>
+      <c r="U60" s="2">
+        <v>84.67</v>
+      </c>
+      <c r="V60" s="13"/>
+      <c r="W60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y60" s="15">
+        <v>99.15</v>
+      </c>
+    </row>
+    <row r="61" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="2">
+        <v>32</v>
+      </c>
+      <c r="U61" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="V61" s="13"/>
+      <c r="W61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X61" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y61" s="15">
+        <v>99.754000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T62" s="2">
+        <v>64</v>
+      </c>
+      <c r="U62" s="2">
+        <v>92.45</v>
+      </c>
+      <c r="V62" s="13"/>
+      <c r="W62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X62" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y62" s="15">
+        <v>99.825999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="17:53" x14ac:dyDescent="0.2">
+      <c r="S63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="2">
+        <v>32</v>
+      </c>
+      <c r="U63" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="V63" s="13"/>
+      <c r="W63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X63" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y63" s="15">
+        <v>99.816000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="17">
+        <v>64</v>
+      </c>
+      <c r="U64" s="17">
+        <v>95.89</v>
+      </c>
+      <c r="V64" s="11"/>
+      <c r="W64" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X64" s="17">
+        <v>64</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>99.775000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S67" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="28"/>
+    </row>
+    <row r="68" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S68" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="22"/>
+    </row>
+    <row r="69" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S69" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="13"/>
+      <c r="W69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y69" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S70" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2">
+        <v>32</v>
+      </c>
+      <c r="U70" s="2">
+        <v>82</v>
+      </c>
+      <c r="V70" s="13"/>
+      <c r="W70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X70" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y70" s="15">
+        <v>99.385999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S71" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T71" s="2">
+        <v>64</v>
+      </c>
+      <c r="U71" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="V71" s="13"/>
+      <c r="W71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X71" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y71" s="15">
+        <v>99.528999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T72" s="2">
+        <v>32</v>
+      </c>
+      <c r="U72" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="V72" s="13"/>
+      <c r="W72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X72" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>99.724000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="2">
+        <v>64</v>
+      </c>
+      <c r="U73" s="2">
+        <v>94.3</v>
+      </c>
+      <c r="V73" s="13"/>
+      <c r="W73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X73" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y73" s="15">
+        <v>99.754000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="S74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" s="2">
+        <v>32</v>
+      </c>
+      <c r="U74" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="V74" s="13"/>
+      <c r="W74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X74" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y74" s="15">
+        <v>99.775000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="17">
+        <v>64</v>
+      </c>
+      <c r="U75" s="17">
+        <v>95.7</v>
+      </c>
+      <c r="V75" s="11"/>
+      <c r="W75" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X75" s="17">
+        <v>64</v>
+      </c>
+      <c r="Y75" s="18">
+        <v>99.733999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="19:25" x14ac:dyDescent="0.2">
+      <c r="V76" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="32">
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -11589,6 +14746,12 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="D32:H32"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="S56:Y56"/>
+    <mergeCell ref="S67:Y67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="W68:Y68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7883C-5E0D-4478-BE85-766F8B3EF682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92477128-CC0B-4680-9A2A-C74C7A56ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
@@ -562,6 +562,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,21 +605,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -927,7 +927,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1248,13 +1248,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Size</c:v>
+                  <c:v>32x32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Size</c:v>
+                  <c:v>64x64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Size</c:v>
+                  <c:v>128x128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12028,15 +12028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>715736</xdr:colOff>
+      <xdr:colOff>706211</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:rowOff>110217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
+      <xdr:colOff>382361</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12587,8 +12587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D1:BA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12669,43 +12669,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="33" t="s">
+      <c r="AP3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -12727,19 +12727,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="29" t="s">
+      <c r="AP5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="31"/>
+      <c r="AQ5" s="23"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -12801,8 +12801,8 @@
         <v>99.674000000000007</v>
       </c>
       <c r="Q7" s="8"/>
-      <c r="R7" s="3" t="s">
-        <v>5</v>
+      <c r="R7" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="S7" s="2">
         <v>6</v>
@@ -12843,8 +12843,8 @@
         <v>96.501000000000005</v>
       </c>
       <c r="Q8" s="8"/>
-      <c r="R8" s="3" t="s">
-        <v>5</v>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="S8" s="2">
         <v>10</v>
@@ -12870,8 +12870,8 @@
     </row>
     <row r="9" spans="4:53" x14ac:dyDescent="0.2">
       <c r="Q9" s="8"/>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
+      <c r="R9" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="S9" s="2">
         <v>3</v>
@@ -12909,13 +12909,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -12938,13 +12938,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="23"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -12983,10 +12983,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="29" t="s">
+      <c r="AP13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="31"/>
+      <c r="AQ13" s="23"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -13113,13 +13113,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -13149,13 +13149,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="31"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -13230,10 +13230,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="29" t="s">
+      <c r="AP21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="31"/>
+      <c r="AQ21" s="23"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -13318,20 +13318,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="J25" s="29" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="J25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -13375,20 +13375,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="29" t="s">
+      <c r="R26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="31"/>
-      <c r="X26" s="29" t="s">
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="23"/>
+      <c r="X26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="31"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -13596,14 +13596,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="32" t="s">
+      <c r="AP29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="32"/>
-      <c r="AS29" s="32" t="s">
+      <c r="AQ29" s="20"/>
+      <c r="AS29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="32"/>
+      <c r="AT29" s="20"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -13673,20 +13673,20 @@
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="J32" s="29" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="J32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
@@ -13736,20 +13736,20 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="29" t="s">
+      <c r="R33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="31"/>
-      <c r="X33" s="29" t="s">
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="23"/>
+      <c r="X33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="31"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="23"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
@@ -14012,14 +14012,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="32" t="s">
+      <c r="AP37" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="32"/>
-      <c r="AS37" s="32" t="s">
+      <c r="AQ37" s="20"/>
+      <c r="AS37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="32"/>
+      <c r="AT37" s="20"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -14044,13 +14044,13 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
@@ -14085,13 +14085,13 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="29" t="s">
+      <c r="R40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="31"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="23"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
@@ -14267,10 +14267,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="32" t="s">
+      <c r="AP45" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="32"/>
+      <c r="AQ45" s="20"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -14373,28 +14373,28 @@
     </row>
     <row r="55" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="S56" s="23" t="s">
+      <c r="S56" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="25"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="30"/>
     </row>
     <row r="57" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="S57" s="19" t="s">
+      <c r="S57" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
       <c r="V57" s="13"/>
-      <c r="W57" s="21" t="s">
+      <c r="W57" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="22"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="27"/>
     </row>
     <row r="58" spans="17:53" x14ac:dyDescent="0.2">
       <c r="S58" s="14" t="s">
@@ -14545,28 +14545,28 @@
     </row>
     <row r="66" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="19:25" x14ac:dyDescent="0.2">
-      <c r="S67" s="26" t="s">
+      <c r="S67" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="28"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="33"/>
     </row>
     <row r="68" spans="19:25" x14ac:dyDescent="0.2">
-      <c r="S68" s="19" t="s">
+      <c r="S68" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
       <c r="V68" s="13"/>
-      <c r="W68" s="21" t="s">
+      <c r="W68" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="22"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="27"/>
     </row>
     <row r="69" spans="19:25" x14ac:dyDescent="0.2">
       <c r="S69" s="14" t="s">
@@ -14720,6 +14720,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="S56:Y56"/>
+    <mergeCell ref="S67:Y67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -14734,24 +14752,6 @@
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="S56:Y56"/>
-    <mergeCell ref="S67:Y67"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="W68:Y68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Result Summary.xlsx
+++ b/Docs/Result Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML Cyber\New Repo\Image_Based_Malware_Classification\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92477128-CC0B-4680-9A2A-C74C7A56ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D2D22-A732-4D42-8225-F3E3F106CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A203DC1-8D7A-5448-A5B0-98BE3735A09B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="35">
   <si>
     <t>LDA</t>
   </si>
@@ -133,13 +133,30 @@
   <si>
     <t xml:space="preserve">Research </t>
   </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -506,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,19 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -605,6 +610,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8207,6 +8230,713 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; Loss Per Epoch</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1708271928925063E-2"/>
+                  <c:y val="-4.6120113648323559E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-548E-4E5E-985A-7C108830061B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$60:$AE$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.55410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-548E-4E5E-985A-7C108830061B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$60:$AF$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.85809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-548E-4E5E-985A-7C108830061B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="586299384"/>
+        <c:axId val="586300664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="586299384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586300664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586300664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586299384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8487,6 +9217,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -11522,6 +12292,509 @@
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12280,6 +13553,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>115356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFAB652-869C-0105-632E-72FFB3BF0D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12587,8 +13896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31505B-2C63-644B-873C-2CE4A29A5DA4}">
   <dimension ref="D1:BA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="AA44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AQ69" sqref="AQ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12669,43 +13978,43 @@
       <c r="Q3" s="8"/>
       <c r="AL3" s="9"/>
       <c r="AO3" s="8"/>
-      <c r="AP3" s="19" t="s">
+      <c r="AP3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="Q4" s="8"/>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
       <c r="AL4" s="9"/>
       <c r="AO4" s="8"/>
       <c r="BA4" s="9"/>
@@ -12727,19 +14036,19 @@
         <v>8</v>
       </c>
       <c r="Q5" s="8"/>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
       <c r="AL5" s="9"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="21" t="s">
+      <c r="AP5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="23"/>
+      <c r="AQ5" s="32"/>
       <c r="BA5" s="9"/>
     </row>
     <row r="6" spans="4:53" x14ac:dyDescent="0.2">
@@ -12909,13 +14218,13 @@
       <c r="BA10" s="9"/>
     </row>
     <row r="11" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="Q11" s="8"/>
       <c r="AL11" s="9"/>
       <c r="AO11" s="8"/>
@@ -12938,13 +14247,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="23"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
       <c r="AL12" s="9"/>
       <c r="AO12" s="8"/>
       <c r="BA12" s="9"/>
@@ -12983,10 +14292,10 @@
       </c>
       <c r="AL13" s="9"/>
       <c r="AO13" s="8"/>
-      <c r="AP13" s="21" t="s">
+      <c r="AP13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AQ13" s="23"/>
+      <c r="AQ13" s="32"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="4:53" x14ac:dyDescent="0.2">
@@ -13113,13 +14422,13 @@
       <c r="BA17" s="9"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="Q18" s="8"/>
       <c r="AL18" s="9"/>
       <c r="AO18" s="8"/>
@@ -13149,13 +14458,13 @@
         <v>8</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="32"/>
       <c r="AL19" s="9"/>
       <c r="AO19" s="8"/>
       <c r="BA19" s="9"/>
@@ -13230,10 +14539,10 @@
       </c>
       <c r="AL21" s="9"/>
       <c r="AO21" s="8"/>
-      <c r="AP21" s="21" t="s">
+      <c r="AP21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="23"/>
+      <c r="AQ21" s="32"/>
       <c r="BA21" s="9"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.2">
@@ -13318,20 +14627,20 @@
       <c r="BA24" s="9"/>
     </row>
     <row r="25" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="J25" s="21" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="J25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
       <c r="Q25" s="8"/>
       <c r="AL25" s="9"/>
       <c r="AO25" s="8"/>
@@ -13375,20 +14684,20 @@
         <v>8</v>
       </c>
       <c r="Q26" s="8"/>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="23"/>
-      <c r="X26" s="21" t="s">
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="32"/>
+      <c r="X26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="23"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="32"/>
       <c r="AL26" s="9"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="4" t="s">
@@ -13596,14 +14905,14 @@
       </c>
       <c r="AL29" s="9"/>
       <c r="AO29" s="8"/>
-      <c r="AP29" s="20" t="s">
+      <c r="AP29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AQ29" s="20"/>
-      <c r="AS29" s="20" t="s">
+      <c r="AQ29" s="33"/>
+      <c r="AS29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AT29" s="20"/>
+      <c r="AT29" s="33"/>
       <c r="BA29" s="9"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.2">
@@ -13673,20 +14982,20 @@
       <c r="BA31" s="9"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="J32" s="21" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="J32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
       <c r="Q32" s="8"/>
       <c r="AL32" s="9"/>
       <c r="AO32" s="8"/>
@@ -13736,20 +15045,20 @@
         <v>8</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="21" t="s">
+      <c r="R33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="23"/>
-      <c r="X33" s="21" t="s">
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="32"/>
+      <c r="X33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="23"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="32"/>
       <c r="AL33" s="9"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="4" t="s">
@@ -14012,14 +15321,14 @@
       </c>
       <c r="AL37" s="9"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="20" t="s">
+      <c r="AP37" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AQ37" s="20"/>
-      <c r="AS37" s="20" t="s">
+      <c r="AQ37" s="33"/>
+      <c r="AS37" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AT37" s="20"/>
+      <c r="AT37" s="33"/>
       <c r="BA37" s="9"/>
     </row>
     <row r="38" spans="4:53" x14ac:dyDescent="0.2">
@@ -14044,13 +15353,13 @@
       <c r="BA38" s="9"/>
     </row>
     <row r="39" spans="4:53" x14ac:dyDescent="0.2">
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
       <c r="Q39" s="8"/>
       <c r="AL39" s="9"/>
       <c r="AO39" s="8"/>
@@ -14085,13 +15394,13 @@
         <v>8</v>
       </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="21" t="s">
+      <c r="R40" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="23"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="32"/>
       <c r="AL40" s="9"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="4" t="s">
@@ -14267,10 +15576,10 @@
       <c r="Q45" s="8"/>
       <c r="AL45" s="9"/>
       <c r="AO45" s="8"/>
-      <c r="AP45" s="20" t="s">
+      <c r="AP45" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AQ45" s="20"/>
+      <c r="AQ45" s="33"/>
       <c r="BA45" s="9"/>
     </row>
     <row r="46" spans="4:53" x14ac:dyDescent="0.2">
@@ -14373,28 +15682,28 @@
     </row>
     <row r="55" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="S56" s="28" t="s">
+      <c r="S56" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="30"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="26"/>
     </row>
     <row r="57" spans="17:53" x14ac:dyDescent="0.2">
-      <c r="S57" s="24" t="s">
+      <c r="S57" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
       <c r="V57" s="13"/>
-      <c r="W57" s="26" t="s">
+      <c r="W57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="27"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="23"/>
     </row>
     <row r="58" spans="17:53" x14ac:dyDescent="0.2">
       <c r="S58" s="14" t="s">
@@ -14417,7 +15726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="17:53" x14ac:dyDescent="0.2">
+    <row r="59" spans="17:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S59" s="14" t="s">
         <v>1</v>
       </c>
@@ -14436,6 +15745,15 @@
       </c>
       <c r="Y59" s="15">
         <v>98.71</v>
+      </c>
+      <c r="AD59" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE59" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF59" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="17:53" x14ac:dyDescent="0.2">
@@ -14458,6 +15776,15 @@
       <c r="Y60" s="15">
         <v>99.15</v>
       </c>
+      <c r="AD60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="19">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="AF60" s="19">
+        <v>0.85809999999999997</v>
+      </c>
     </row>
     <row r="61" spans="17:53" x14ac:dyDescent="0.2">
       <c r="S61" s="14" t="s">
@@ -14479,6 +15806,15 @@
       <c r="Y61" s="15">
         <v>99.754000000000005</v>
       </c>
+      <c r="AD61" s="19">
+        <v>2</v>
+      </c>
+      <c r="AE61" s="19">
+        <v>0.1046</v>
+      </c>
+      <c r="AF61" s="19">
+        <v>0.97009999999999996</v>
+      </c>
     </row>
     <row r="62" spans="17:53" x14ac:dyDescent="0.2">
       <c r="S62" s="14" t="s">
@@ -14500,6 +15836,15 @@
       <c r="Y62" s="15">
         <v>99.825999999999993</v>
       </c>
+      <c r="AD62" s="19">
+        <v>3</v>
+      </c>
+      <c r="AE62" s="19">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="AF62" s="19">
+        <v>0.97629999999999995</v>
+      </c>
     </row>
     <row r="63" spans="17:53" x14ac:dyDescent="0.2">
       <c r="S63" s="14" t="s">
@@ -14521,6 +15866,15 @@
       <c r="Y63" s="15">
         <v>99.816000000000003</v>
       </c>
+      <c r="AD63" s="19">
+        <v>4</v>
+      </c>
+      <c r="AE63" s="19">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="AF63" s="19">
+        <v>0.98080000000000001</v>
+      </c>
     </row>
     <row r="64" spans="17:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S64" s="16" t="s">
@@ -14542,33 +15896,81 @@
       <c r="Y64" s="18">
         <v>99.775000000000006</v>
       </c>
+      <c r="AD64" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="19">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="AF64" s="19">
+        <v>0.98250000000000004</v>
+      </c>
     </row>
-    <row r="66" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="19:25" x14ac:dyDescent="0.2">
-      <c r="S67" s="31" t="s">
+    <row r="65" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="AD65" s="19">
+        <v>6</v>
+      </c>
+      <c r="AE65" s="19">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="AF65" s="19">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="19:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD66" s="19">
+        <v>7</v>
+      </c>
+      <c r="AE66" s="19">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="AF66" s="19">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="33"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="29"/>
+      <c r="AD67" s="19">
+        <v>8</v>
+      </c>
+      <c r="AE67" s="19">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="AF67" s="19">
+        <v>0.99470000000000003</v>
+      </c>
     </row>
-    <row r="68" spans="19:25" x14ac:dyDescent="0.2">
-      <c r="S68" s="24" t="s">
+    <row r="68" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S68" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
       <c r="V68" s="13"/>
-      <c r="W68" s="26" t="s">
+      <c r="W68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="27"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="23"/>
+      <c r="AD68" s="19">
+        <v>9</v>
+      </c>
+      <c r="AE68" s="19">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="AF68" s="19">
+        <v>0.99919999999999998</v>
+      </c>
     </row>
-    <row r="69" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S69" s="14" t="s">
         <v>5</v>
       </c>
@@ -14588,8 +15990,17 @@
       <c r="Y69" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="AD69" s="19">
+        <v>10</v>
+      </c>
+      <c r="AE69" s="19">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AF69" s="19">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
-    <row r="70" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S70" s="14" t="s">
         <v>1</v>
       </c>
@@ -14609,8 +16020,17 @@
       <c r="Y70" s="15">
         <v>99.385999999999996</v>
       </c>
+      <c r="AD70" s="19">
+        <v>11</v>
+      </c>
+      <c r="AE70" s="19">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AF70" s="19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S71" s="14" t="s">
         <v>1</v>
       </c>
@@ -14631,7 +16051,7 @@
         <v>99.528999999999996</v>
       </c>
     </row>
-    <row r="72" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S72" s="14" t="s">
         <v>19</v>
       </c>
@@ -14652,7 +16072,7 @@
         <v>99.724000000000004</v>
       </c>
     </row>
-    <row r="73" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S73" s="14" t="s">
         <v>19</v>
       </c>
@@ -14673,7 +16093,7 @@
         <v>99.754000000000005</v>
       </c>
     </row>
-    <row r="74" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S74" s="14" t="s">
         <v>3</v>
       </c>
@@ -14694,7 +16114,7 @@
         <v>99.775000000000006</v>
       </c>
     </row>
-    <row r="75" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S75" s="16" t="s">
         <v>3</v>
       </c>
@@ -14715,29 +16135,11 @@
         <v>99.733999999999995</v>
       </c>
     </row>
-    <row r="76" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="19:32" x14ac:dyDescent="0.2">
       <c r="V76" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="S56:Y56"/>
-    <mergeCell ref="S67:Y67"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="AP3:AZ3"/>
     <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AS29:AT29"/>
@@ -14752,8 +16154,27 @@
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R26:V26"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="S56:Y56"/>
+    <mergeCell ref="S67:Y67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="W68:Y68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>